--- a/Bank.xlsx
+++ b/Bank.xlsx
@@ -2250,36 +2250,15 @@
     <t>044 666 733</t>
   </si>
   <si>
-    <t>IDCategory</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
     <t>Province</t>
   </si>
   <si>
     <t>ZipCode</t>
   </si>
   <si>
-    <t>Workday</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
-    <t>Logo</t>
-  </si>
-  <si>
-    <t>Lat</t>
-  </si>
-  <si>
-    <t>Lng</t>
-  </si>
-  <si>
     <t>District1</t>
   </si>
   <si>
@@ -2292,9 +2271,6 @@
     <t>ธนาคาร</t>
   </si>
   <si>
-    <t>Tel</t>
-  </si>
-  <si>
     <t>distacne</t>
   </si>
   <si>
@@ -2767,6 +2743,30 @@
   </si>
   <si>
     <t>ID-brn</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>workday</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lng</t>
+  </si>
+  <si>
+    <t>logo</t>
   </si>
 </sst>
 </file>
@@ -3132,8 +3132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3152,57 +3152,57 @@
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>7</v>
@@ -3246,10 +3246,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>7</v>
@@ -3293,10 +3293,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>7</v>
@@ -3340,10 +3340,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>7</v>
@@ -3387,10 +3387,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>7</v>
@@ -3434,10 +3434,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>7</v>
@@ -3481,10 +3481,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>34</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>7</v>
@@ -3528,10 +3528,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>40</v>
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>7</v>
@@ -3575,10 +3575,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>47</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>7</v>
@@ -3622,10 +3622,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>54</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>7</v>
@@ -3669,10 +3669,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>61</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>66</v>
@@ -3716,10 +3716,10 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>67</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>74</v>
@@ -3763,10 +3763,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>75</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>79</v>
@@ -3810,10 +3810,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>80</v>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>79</v>
@@ -3857,10 +3857,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>85</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>79</v>
@@ -3904,10 +3904,10 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>90</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>94</v>
@@ -3951,10 +3951,10 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>95</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>79</v>
@@ -3998,10 +3998,10 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>100</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>79</v>
@@ -4045,10 +4045,10 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>104</v>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>79</v>
@@ -4092,10 +4092,10 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>108</v>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>79</v>
@@ -4139,10 +4139,10 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>113</v>
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>79</v>
@@ -4186,10 +4186,10 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>118</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>79</v>
@@ -4233,10 +4233,10 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>122</v>
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>79</v>
@@ -4280,10 +4280,10 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>127</v>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>79</v>
@@ -4327,10 +4327,10 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>132</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>79</v>
@@ -4374,10 +4374,10 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>137</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>79</v>
@@ -4421,10 +4421,10 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>142</v>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>79</v>
@@ -4468,10 +4468,10 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>146</v>
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>79</v>
@@ -4515,10 +4515,10 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>151</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>79</v>
@@ -4562,10 +4562,10 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>156</v>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>79</v>
@@ -4609,10 +4609,10 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>160</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>79</v>
@@ -4656,10 +4656,10 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>165</v>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>79</v>
@@ -4703,10 +4703,10 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>170</v>
@@ -4742,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>79</v>
@@ -4750,10 +4750,10 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>175</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>79</v>
@@ -4797,10 +4797,10 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>181</v>
@@ -4836,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>79</v>
@@ -4844,10 +4844,10 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>186</v>
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>192</v>
@@ -4891,10 +4891,10 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>193</v>
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>74</v>
@@ -4938,10 +4938,10 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>198</v>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>203</v>
@@ -4985,10 +4985,10 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>204</v>
@@ -5024,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>208</v>
@@ -5032,10 +5032,10 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>209</v>
@@ -5071,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>214</v>
@@ -5079,10 +5079,10 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>215</v>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>221</v>
@@ -5126,10 +5126,10 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>222</v>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>227</v>
@@ -5173,10 +5173,10 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>228</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>227</v>
@@ -5220,10 +5220,10 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>232</v>
@@ -5259,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>227</v>
@@ -5267,10 +5267,10 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>236</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>227</v>
@@ -5314,10 +5314,10 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>242</v>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>79</v>
@@ -5361,10 +5361,10 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>248</v>
@@ -5400,7 +5400,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>79</v>
@@ -5408,10 +5408,10 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>252</v>
@@ -5447,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>257</v>
@@ -5455,10 +5455,10 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>258</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>257</v>
@@ -5502,10 +5502,10 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>263</v>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>257</v>
@@ -5549,10 +5549,10 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>268</v>
@@ -5588,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>79</v>
@@ -5596,10 +5596,10 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>273</v>
@@ -5635,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>192</v>
@@ -5643,10 +5643,10 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>278</v>
@@ -5682,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>192</v>
@@ -5690,10 +5690,10 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>284</v>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>192</v>
@@ -5737,10 +5737,10 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>290</v>
@@ -5776,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>79</v>
@@ -5784,10 +5784,10 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>295</v>
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>79</v>
@@ -5831,10 +5831,10 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>299</v>
@@ -5870,18 +5870,18 @@
         <v>0</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>303</v>
@@ -5917,18 +5917,18 @@
         <v>0</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>308</v>
@@ -5964,18 +5964,18 @@
         <v>0</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>312</v>
@@ -6011,18 +6011,18 @@
         <v>0</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>316</v>
@@ -6058,18 +6058,18 @@
         <v>0</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>320</v>
@@ -6105,18 +6105,18 @@
         <v>0</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>325</v>
@@ -6152,18 +6152,18 @@
         <v>0</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>331</v>
@@ -6199,18 +6199,18 @@
         <v>0</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>337</v>
@@ -6246,18 +6246,18 @@
         <v>0</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>342</v>
@@ -6293,18 +6293,18 @@
         <v>0</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>347</v>
@@ -6340,18 +6340,18 @@
         <v>0</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>352</v>
@@ -6387,18 +6387,18 @@
         <v>0</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>356</v>
@@ -6434,18 +6434,18 @@
         <v>0</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>361</v>
@@ -6481,18 +6481,18 @@
         <v>0</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>365</v>
@@ -6528,18 +6528,18 @@
         <v>0</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>369</v>
@@ -6575,18 +6575,18 @@
         <v>0</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>373</v>
@@ -6622,18 +6622,18 @@
         <v>0</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>377</v>
@@ -6669,18 +6669,18 @@
         <v>0</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>382</v>
@@ -6716,18 +6716,18 @@
         <v>0</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>387</v>
@@ -6763,18 +6763,18 @@
         <v>0</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>392</v>
@@ -6810,18 +6810,18 @@
         <v>0</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>397</v>
@@ -6857,18 +6857,18 @@
         <v>0</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>402</v>
@@ -6904,18 +6904,18 @@
         <v>0</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>407</v>
@@ -6951,18 +6951,18 @@
         <v>0</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>412</v>
@@ -6998,18 +6998,18 @@
         <v>0</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>418</v>
@@ -7045,18 +7045,18 @@
         <v>0</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>423</v>
@@ -7092,18 +7092,18 @@
         <v>0</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>428</v>
@@ -7139,18 +7139,18 @@
         <v>0</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>432</v>
@@ -7186,18 +7186,18 @@
         <v>0</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>437</v>
@@ -7233,18 +7233,18 @@
         <v>0</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>442</v>
@@ -7280,18 +7280,18 @@
         <v>0</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>446</v>
@@ -7327,18 +7327,18 @@
         <v>0</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>450</v>
@@ -7374,18 +7374,18 @@
         <v>0</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>454</v>
@@ -7421,18 +7421,18 @@
         <v>0</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>458</v>
@@ -7468,18 +7468,18 @@
         <v>0</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>462</v>
@@ -7515,18 +7515,18 @@
         <v>0</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>467</v>
@@ -7562,18 +7562,18 @@
         <v>0</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>472</v>
@@ -7609,18 +7609,18 @@
         <v>0</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>477</v>
@@ -7656,18 +7656,18 @@
         <v>0</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>482</v>
@@ -7703,18 +7703,18 @@
         <v>0</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>487</v>
@@ -7750,18 +7750,18 @@
         <v>0</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>491</v>
@@ -7797,18 +7797,18 @@
         <v>0</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>496</v>
@@ -7844,18 +7844,18 @@
         <v>0</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>500</v>
@@ -7891,18 +7891,18 @@
         <v>0</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>504</v>
@@ -7938,18 +7938,18 @@
         <v>0</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>508</v>
@@ -7985,18 +7985,18 @@
         <v>0</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>513</v>
@@ -8032,18 +8032,18 @@
         <v>0</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>517</v>
@@ -8079,18 +8079,18 @@
         <v>0</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>522</v>
@@ -8126,18 +8126,18 @@
         <v>0</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>527</v>
@@ -8173,18 +8173,18 @@
         <v>0</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>531</v>
@@ -8220,18 +8220,18 @@
         <v>0</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>535</v>
@@ -8267,18 +8267,18 @@
         <v>0</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>541</v>
@@ -8314,18 +8314,18 @@
         <v>0</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>546</v>
@@ -8361,18 +8361,18 @@
         <v>0</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>550</v>
@@ -8408,18 +8408,18 @@
         <v>0</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>554</v>
@@ -8455,18 +8455,18 @@
         <v>0</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>559</v>
@@ -8502,18 +8502,18 @@
         <v>0</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>563</v>
@@ -8549,18 +8549,18 @@
         <v>0</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>568</v>
@@ -8596,18 +8596,18 @@
         <v>0</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>572</v>
@@ -8643,18 +8643,18 @@
         <v>0</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>576</v>
@@ -8690,18 +8690,18 @@
         <v>0</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>580</v>
@@ -8737,18 +8737,18 @@
         <v>0</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>584</v>
@@ -8784,18 +8784,18 @@
         <v>0</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>588</v>
@@ -8831,18 +8831,18 @@
         <v>0</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>592</v>
@@ -8878,18 +8878,18 @@
         <v>0</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>596</v>
@@ -8925,18 +8925,18 @@
         <v>0</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>600</v>
@@ -8972,18 +8972,18 @@
         <v>0</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>605</v>
@@ -9019,18 +9019,18 @@
         <v>0</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>609</v>
@@ -9066,18 +9066,18 @@
         <v>0</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>614</v>
@@ -9113,18 +9113,18 @@
         <v>0</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>619</v>
@@ -9160,18 +9160,18 @@
         <v>0</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>624</v>
@@ -9207,18 +9207,18 @@
         <v>0</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>629</v>
@@ -9254,18 +9254,18 @@
         <v>0</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>634</v>
@@ -9301,18 +9301,18 @@
         <v>0</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>639</v>
@@ -9348,18 +9348,18 @@
         <v>0</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>644</v>
@@ -9395,18 +9395,18 @@
         <v>0</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>648</v>
@@ -9442,18 +9442,18 @@
         <v>0</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>652</v>
@@ -9489,18 +9489,18 @@
         <v>0</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>656</v>
@@ -9536,18 +9536,18 @@
         <v>0</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>660</v>
@@ -9583,18 +9583,18 @@
         <v>0</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>664</v>
@@ -9630,18 +9630,18 @@
         <v>0</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>668</v>
@@ -9677,18 +9677,18 @@
         <v>0</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O139" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>672</v>
@@ -9724,18 +9724,18 @@
         <v>0</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>676</v>
@@ -9771,18 +9771,18 @@
         <v>0</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>680</v>
@@ -9818,18 +9818,18 @@
         <v>0</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>684</v>
@@ -9865,18 +9865,18 @@
         <v>0</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>688</v>
@@ -9912,18 +9912,18 @@
         <v>0</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>692</v>
@@ -9959,18 +9959,18 @@
         <v>0</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>696</v>
@@ -10006,18 +10006,18 @@
         <v>0</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>700</v>
@@ -10053,18 +10053,18 @@
         <v>0</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>705</v>
@@ -10100,18 +10100,18 @@
         <v>0</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>709</v>
@@ -10147,18 +10147,18 @@
         <v>0</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O149" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>713</v>
@@ -10194,18 +10194,18 @@
         <v>0</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>717</v>
@@ -10241,18 +10241,18 @@
         <v>0</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>721</v>
@@ -10288,18 +10288,18 @@
         <v>0</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>726</v>
@@ -10335,18 +10335,18 @@
         <v>0</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O153" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>730</v>
@@ -10382,18 +10382,18 @@
         <v>0</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O154" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>734</v>
@@ -10429,18 +10429,18 @@
         <v>0</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>738</v>
@@ -10476,10 +10476,10 @@
         <v>0</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="O156" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
   </sheetData>

--- a/Bank.xlsx
+++ b/Bank.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="902">
   <si>
     <t>BRN_1760</t>
   </si>
@@ -42,9 +42,6 @@
     <t>10:30-19:30 น.</t>
   </si>
   <si>
-    <t>ปิดให้บริการ ระหว่างวันที่ 22 มี.ค. - 12 เม.ย. 63</t>
-  </si>
-  <si>
     <t>BRN_1790</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
     <t>02 222 0176</t>
   </si>
   <si>
-    <t>เปลี่ยนเวลาทำการ ทุกวันจันทร์ - วันศุกร์ 8.30 - 17.00 น. วันเสาร์ 10.00 - 17.00 น.</t>
-  </si>
-  <si>
     <t>BRN_1510</t>
   </si>
   <si>
@@ -243,9 +237,6 @@
     <t>10:00-18:00 น.</t>
   </si>
   <si>
-    <t>เปลี่ยนเวลาทำการ ทุกวัน 10.00 - 17.00 น.</t>
-  </si>
-  <si>
     <t>BRN_2470</t>
   </si>
   <si>
@@ -258,9 +249,6 @@
     <t>02 752 4507</t>
   </si>
   <si>
-    <t>เปลี่ยนเวลาทำการ ทุกวัน 11.00 - 17.00 น.</t>
-  </si>
-  <si>
     <t>BRN_1270</t>
   </si>
   <si>
@@ -303,9 +291,6 @@
     <t>0 2331 3582</t>
   </si>
   <si>
-    <t>เปลี่ยนเวลาทำการ ทุกวันจันทร์ - วันศุกร์ 11.00 - 17.00 น.</t>
-  </si>
-  <si>
     <t>BRN_1660</t>
   </si>
   <si>
@@ -597,9 +582,6 @@
     <t>8:30-17:30 น.</t>
   </si>
   <si>
-    <t>เปลี่ยนเวลาทำการ ทุกวันจันทร์ - วันศุกร์ 8.30 - 17.00 น.</t>
-  </si>
-  <si>
     <t>BRN_0720</t>
   </si>
   <si>
@@ -630,9 +612,6 @@
     <t xml:space="preserve">10:30-18:30 น.    </t>
   </si>
   <si>
-    <t>เปลี่ยนเวลาทำการ ทุกวันจันทร์ - วันศุกร์  10.30 - 17.00 น.</t>
-  </si>
-  <si>
     <t>BRN_1780</t>
   </si>
   <si>
@@ -645,9 +624,6 @@
     <t>0 2263 3530</t>
   </si>
   <si>
-    <t>เปลี่ยนเวลาทำการ ทุกวันจันทร์ - วันศุกร์  9.00 - 17.00 น.</t>
-  </si>
-  <si>
     <t>BRN_0910</t>
   </si>
   <si>
@@ -663,9 +639,6 @@
     <t>9:00-17:30 น.</t>
   </si>
   <si>
-    <t>เปลี่ยนเวลาทำการ ทุกวันจันทร์ - วันศุกร์  9.30 - 17.00 น.</t>
-  </si>
-  <si>
     <t>BRN_1560</t>
   </si>
   <si>
@@ -684,9 +657,6 @@
     <t>9:30-18:30 น.</t>
   </si>
   <si>
-    <t>เปลี่ยนเวลาทำการ ทุกวัน 9.30 - 17.00 น.</t>
-  </si>
-  <si>
     <t>BRN_047B</t>
   </si>
   <si>
@@ -702,9 +672,6 @@
     <t>02 093 2218-9</t>
   </si>
   <si>
-    <t>เปลี่ยนเวลาทำการ ทุกวัน 10.30 - 17.00 น.</t>
-  </si>
-  <si>
     <t>BRN_047D</t>
   </si>
   <si>
@@ -792,9 +759,6 @@
     <t>038 429464</t>
   </si>
   <si>
-    <t>เปลี่ยนเวลาทำการ ทุกวันจันทร์ - วันศุกร์ 10.00 - 17.00 น.</t>
-  </si>
-  <si>
     <t>BRN_1750</t>
   </si>
   <si>
@@ -2250,24 +2214,9 @@
     <t>044 666 733</t>
   </si>
   <si>
-    <t>Province</t>
-  </si>
-  <si>
-    <t>ZipCode</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>District1</t>
-  </si>
-  <si>
     <t>https://ran-ln.tk/saveIMG/bank.jpg</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>ธนาคาร</t>
   </si>
   <si>
@@ -2742,9 +2691,6 @@
     <t>155</t>
   </si>
   <si>
-    <t>ID-brn</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
@@ -2767,6 +2713,18 @@
   </si>
   <si>
     <t>logo</t>
+  </si>
+  <si>
+    <t>brn</t>
+  </si>
+  <si>
+    <t>district1</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>zipCode</t>
   </si>
 </sst>
 </file>
@@ -3130,10 +3088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O156"/>
+  <dimension ref="A1:N156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="E136" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3147,62 +3105,58 @@
     <col min="12" max="12" width="20.140625" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" customWidth="1"/>
     <col min="14" max="14" width="36.28515625" customWidth="1"/>
-    <col min="15" max="15" width="67.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>908</v>
+        <v>890</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>909</v>
+        <v>891</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>910</v>
+        <v>892</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>746</v>
+        <v>899</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>743</v>
+        <v>900</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>744</v>
+        <v>901</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>911</v>
+        <v>893</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>912</v>
+        <v>894</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>913</v>
+        <v>895</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>914</v>
+        <v>896</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>753</v>
+        <v>736</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -3238,30 +3192,27 @@
         <v>0</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O2" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>4</v>
@@ -3270,7 +3221,7 @@
         <v>10600</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>6</v>
@@ -3285,30 +3236,27 @@
         <v>0</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>755</v>
+        <v>738</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>4</v>
@@ -3317,10 +3265,10 @@
         <v>10400</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="K4" s="2">
         <v>13.750666000000001</v>
@@ -3332,27 +3280,24 @@
         <v>0</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>756</v>
+        <v>739</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>3</v>
@@ -3364,10 +3309,10 @@
         <v>10330</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="K5" s="2">
         <v>13.746230000000001</v>
@@ -3379,30 +3324,27 @@
         <v>0</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>757</v>
+        <v>740</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>4</v>
@@ -3411,7 +3353,7 @@
         <v>10500</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>6</v>
@@ -3426,30 +3368,27 @@
         <v>0</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>4</v>
@@ -3458,7 +3397,7 @@
         <v>10160</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>6</v>
@@ -3473,42 +3412,39 @@
         <v>0</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="H8" s="2">
         <v>11000</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8" s="2">
         <v>13.8657</v>
@@ -3520,42 +3456,39 @@
         <v>0</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="H9" s="2">
         <v>10540</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="K9" s="2">
         <v>13.632619999999999</v>
@@ -3567,42 +3500,39 @@
         <v>0</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>761</v>
+        <v>744</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="H10" s="2">
         <v>10260</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="K10" s="2">
         <v>13.68628</v>
@@ -3614,42 +3544,39 @@
         <v>0</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>762</v>
+        <v>745</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="H11" s="2">
         <v>83150</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="K11" s="2">
         <v>7.8851069999999996</v>
@@ -3661,30 +3588,27 @@
         <v>0</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>763</v>
+        <v>746</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>4</v>
@@ -3693,10 +3617,10 @@
         <v>10200</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K12" s="2">
         <v>13.746428</v>
@@ -3708,42 +3632,39 @@
         <v>0</v>
       </c>
       <c r="N12" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="2">
         <v>73160</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K13" s="2">
         <v>13.707967</v>
@@ -3755,42 +3676,39 @@
         <v>0</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O13" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="H14" s="2">
         <v>10540</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K14" s="2">
         <v>13.603809999999999</v>
@@ -3802,30 +3720,27 @@
         <v>0</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O14" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>4</v>
@@ -3834,10 +3749,10 @@
         <v>10700</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15" s="2">
         <v>13.776652</v>
@@ -3849,30 +3764,27 @@
         <v>0</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>767</v>
+        <v>750</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>4</v>
@@ -3881,10 +3793,10 @@
         <v>10120</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16" s="2">
         <v>13.697649999999999</v>
@@ -3896,30 +3808,27 @@
         <v>0</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>768</v>
+        <v>751</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>4</v>
@@ -3928,10 +3837,10 @@
         <v>10260</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17" s="2">
         <v>13.702631</v>
@@ -3943,30 +3852,27 @@
         <v>0</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>4</v>
@@ -3975,10 +3881,10 @@
         <v>10110</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K18" s="2">
         <v>13.719353</v>
@@ -3990,30 +3896,27 @@
         <v>0</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>4</v>
@@ -4022,10 +3925,10 @@
         <v>10260</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K19" s="2">
         <v>13.686070000000001</v>
@@ -4037,27 +3940,24 @@
         <v>0</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>771</v>
+        <v>754</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>3</v>
@@ -4069,10 +3969,10 @@
         <v>10330</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20" s="2">
         <v>13.743370000000001</v>
@@ -4084,30 +3984,27 @@
         <v>0</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>772</v>
+        <v>755</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>4</v>
@@ -4116,10 +4013,10 @@
         <v>10230</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K21" s="2">
         <v>13.803610000000001</v>
@@ -4131,30 +4028,27 @@
         <v>0</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>4</v>
@@ -4163,10 +4057,10 @@
         <v>10310</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K22" s="2">
         <v>13.758324</v>
@@ -4178,42 +4072,39 @@
         <v>0</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="H23" s="2">
         <v>11000</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K23" s="2">
         <v>13.855147000000001</v>
@@ -4225,30 +4116,27 @@
         <v>0</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>775</v>
+        <v>758</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>4</v>
@@ -4257,10 +4145,10 @@
         <v>10220</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24" s="2">
         <v>13.87214</v>
@@ -4272,42 +4160,39 @@
         <v>0</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>776</v>
+        <v>759</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H25" s="2">
         <v>11140</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K25" s="2">
         <v>13.877005</v>
@@ -4319,30 +4204,27 @@
         <v>0</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>777</v>
+        <v>760</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>4</v>
@@ -4351,10 +4233,10 @@
         <v>10160</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K26" s="2">
         <v>13.711</v>
@@ -4366,30 +4248,27 @@
         <v>0</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>4</v>
@@ -4398,10 +4277,10 @@
         <v>10150</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="2">
         <v>13.663781</v>
@@ -4413,42 +4292,39 @@
         <v>0</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>779</v>
+        <v>762</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H28" s="2">
         <v>10280</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K28" s="2">
         <v>13.58437</v>
@@ -4460,30 +4336,27 @@
         <v>0</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>780</v>
+        <v>763</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>4</v>
@@ -4492,10 +4365,10 @@
         <v>10240</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29" s="2">
         <v>13.767502</v>
@@ -4507,30 +4380,27 @@
         <v>0</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>4</v>
@@ -4539,10 +4409,10 @@
         <v>10250</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30" s="2">
         <v>13.688057000000001</v>
@@ -4554,42 +4424,39 @@
         <v>0</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>782</v>
+        <v>765</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="H31" s="2">
         <v>10540</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31" s="2">
         <v>13.648524</v>
@@ -4601,30 +4468,27 @@
         <v>0</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>783</v>
+        <v>766</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>4</v>
@@ -4633,10 +4497,10 @@
         <v>10260</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32" s="2">
         <v>13.668523</v>
@@ -4648,30 +4512,27 @@
         <v>0</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>784</v>
+        <v>767</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>4</v>
@@ -4680,10 +4541,10 @@
         <v>10230</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33" s="2">
         <v>13.825226000000001</v>
@@ -4695,30 +4556,27 @@
         <v>0</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>4</v>
@@ -4727,10 +4585,10 @@
         <v>10170</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K34" s="2">
         <v>13.767699</v>
@@ -4742,39 +4600,36 @@
         <v>0</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H35" s="2">
         <v>12110</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>6</v>
@@ -4789,30 +4644,27 @@
         <v>0</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>787</v>
+        <v>770</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>4</v>
@@ -4821,7 +4673,7 @@
         <v>10250</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>6</v>
@@ -4836,30 +4688,27 @@
         <v>0</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>788</v>
+        <v>771</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>4</v>
@@ -4868,10 +4717,10 @@
         <v>10100</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K37" s="2">
         <v>13.75409</v>
@@ -4883,27 +4732,24 @@
         <v>0</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>789</v>
+        <v>772</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>3</v>
@@ -4915,10 +4761,10 @@
         <v>10500</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K38" s="2">
         <v>13.744224000000001</v>
@@ -4930,30 +4776,27 @@
         <v>0</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>790</v>
+        <v>773</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>4</v>
@@ -4962,10 +4805,10 @@
         <v>10500</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K39" s="2">
         <v>13.727149000000001</v>
@@ -4977,27 +4820,24 @@
         <v>0</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>791</v>
+        <v>774</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>3</v>
@@ -5009,10 +4849,10 @@
         <v>10330</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K40" s="2">
         <v>13.735849999999999</v>
@@ -5024,27 +4864,24 @@
         <v>0</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>3</v>
@@ -5056,10 +4893,10 @@
         <v>10330</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="K41" s="2">
         <v>13.739057000000001</v>
@@ -5071,42 +4908,39 @@
         <v>0</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H42" s="2">
         <v>12120</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="K42" s="2">
         <v>14.08221</v>
@@ -5118,39 +4952,36 @@
         <v>0</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H43" s="2">
         <v>10600</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>6</v>
@@ -5165,39 +4996,36 @@
         <v>0</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>795</v>
+        <v>778</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H44" s="2">
         <v>12130</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>6</v>
@@ -5212,39 +5040,36 @@
         <v>0</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>796</v>
+        <v>779</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="H45" s="2">
         <v>10540</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>6</v>
@@ -5259,39 +5084,36 @@
         <v>0</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O45" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="H46" s="2">
         <v>11120</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>6</v>
@@ -5306,42 +5128,39 @@
         <v>0</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H47" s="2">
         <v>20110</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K47" s="2">
         <v>13.169494</v>
@@ -5353,42 +5172,39 @@
         <v>0</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>799</v>
+        <v>782</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H48" s="2">
         <v>20000</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K48" s="2">
         <v>13.337246</v>
@@ -5400,42 +5216,39 @@
         <v>0</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O48" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>800</v>
+        <v>783</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H49" s="2">
         <v>20260</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K49" s="2">
         <v>12.927666</v>
@@ -5447,42 +5260,39 @@
         <v>0</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>801</v>
+        <v>784</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H50" s="2">
         <v>20000</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="K50" s="2">
         <v>13.420329000000001</v>
@@ -5494,42 +5304,39 @@
         <v>0</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>802</v>
+        <v>785</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H51" s="2">
         <v>20150</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="K51" s="2">
         <v>12.971168</v>
@@ -5541,42 +5348,39 @@
         <v>0</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O51" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="H52" s="2">
         <v>21000</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K52" s="2">
         <v>12.68346</v>
@@ -5588,42 +5392,39 @@
         <v>0</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>804</v>
+        <v>787</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="H53" s="2">
         <v>30000</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K53" s="2">
         <v>14.979063</v>
@@ -5635,42 +5436,39 @@
         <v>0</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>805</v>
+        <v>788</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="H54" s="2">
         <v>41000</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K54" s="2">
         <v>17.404153999999998</v>
@@ -5682,42 +5480,39 @@
         <v>0</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>806</v>
+        <v>789</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="H55" s="2">
         <v>40000</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="K55" s="2">
         <v>16.435400999999999</v>
@@ -5729,42 +5524,39 @@
         <v>0</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>807</v>
+        <v>790</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="H56" s="2">
         <v>50100</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K56" s="2">
         <v>18.769777000000001</v>
@@ -5776,42 +5568,39 @@
         <v>0</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>808</v>
+        <v>791</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H57" s="2">
         <v>83000</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K57" s="2">
         <v>7.8911369999999996</v>
@@ -5823,30 +5612,27 @@
         <v>0</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>809</v>
+        <v>792</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>4</v>
@@ -5855,10 +5641,10 @@
         <v>10500</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K58" s="2">
         <v>13.731427999999999</v>
@@ -5870,30 +5656,27 @@
         <v>0</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O58" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>810</v>
+        <v>793</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>4</v>
@@ -5902,10 +5685,10 @@
         <v>10100</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K59" s="2">
         <v>13.737927000000001</v>
@@ -5917,27 +5700,24 @@
         <v>0</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O59" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>811</v>
+        <v>794</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>3</v>
@@ -5949,10 +5729,10 @@
         <v>10330</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K60" s="2">
         <v>13.747645</v>
@@ -5964,42 +5744,39 @@
         <v>0</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>812</v>
+        <v>795</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H61" s="2">
         <v>20000</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K61" s="2">
         <v>13.367065999999999</v>
@@ -6011,42 +5788,39 @@
         <v>0</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>813</v>
+        <v>796</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="H62" s="2">
         <v>30000</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K62" s="2">
         <v>14.973026000000001</v>
@@ -6058,42 +5832,39 @@
         <v>0</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>814</v>
+        <v>797</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="H63" s="2">
         <v>80000</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K63" s="2">
         <v>8.4409030000000005</v>
@@ -6105,42 +5876,39 @@
         <v>0</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="H64" s="2">
         <v>90110</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K64" s="2">
         <v>7.0026919999999997</v>
@@ -6152,42 +5920,39 @@
         <v>0</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O64" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="H65" s="2">
         <v>95000</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="K65" s="2">
         <v>6.5510890000000002</v>
@@ -6199,42 +5964,39 @@
         <v>0</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O65" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>817</v>
+        <v>800</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H66" s="2">
         <v>20170</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K66" s="2">
         <v>13.311185</v>
@@ -6246,42 +6008,39 @@
         <v>0</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O66" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>818</v>
+        <v>801</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="H67" s="2">
         <v>50100</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="K67" s="2">
         <v>18.781120000000001</v>
@@ -6293,42 +6052,39 @@
         <v>0</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O67" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>819</v>
+        <v>802</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="H68" s="2">
         <v>24000</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K68" s="2">
         <v>13.692282000000001</v>
@@ -6340,42 +6096,39 @@
         <v>0</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>820</v>
+        <v>803</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H69" s="2">
         <v>83000</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K69" s="2">
         <v>7.880992</v>
@@ -6387,42 +6140,39 @@
         <v>0</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O69" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="H70" s="2">
         <v>34000</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K70" s="2">
         <v>15.232138000000001</v>
@@ -6434,42 +6184,39 @@
         <v>0</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>822</v>
+        <v>805</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="H71" s="2">
         <v>40000</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K71" s="2">
         <v>16.435815000000002</v>
@@ -6481,42 +6228,39 @@
         <v>0</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O71" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>823</v>
+        <v>806</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="F72" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="H72" s="2">
         <v>11000</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K72" s="2">
         <v>13.843832000000001</v>
@@ -6528,30 +6272,27 @@
         <v>0</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O72" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>824</v>
+        <v>807</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>4</v>
@@ -6560,10 +6301,10 @@
         <v>10500</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K73" s="2">
         <v>13.723876000000001</v>
@@ -6575,42 +6316,39 @@
         <v>0</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>825</v>
+        <v>808</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H74" s="2">
         <v>10270</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K74" s="2">
         <v>13.649533</v>
@@ -6622,42 +6360,39 @@
         <v>0</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>826</v>
+        <v>809</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="H75" s="2">
         <v>65000</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="K75" s="2">
         <v>16.817119999999999</v>
@@ -6669,30 +6404,27 @@
         <v>0</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>4</v>
@@ -6701,10 +6433,10 @@
         <v>10400</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K76" s="2">
         <v>13.768891</v>
@@ -6716,42 +6448,39 @@
         <v>0</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O76" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>828</v>
+        <v>811</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="H77" s="2">
         <v>18000</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K77" s="2">
         <v>14.525961000000001</v>
@@ -6763,30 +6492,27 @@
         <v>0</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O77" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>829</v>
+        <v>812</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>4</v>
@@ -6795,10 +6521,10 @@
         <v>10140</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K78" s="2">
         <v>13.686303000000001</v>
@@ -6810,30 +6536,27 @@
         <v>0</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O78" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>830</v>
+        <v>813</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>4</v>
@@ -6842,10 +6565,10 @@
         <v>10310</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K79" s="2">
         <v>13.796044</v>
@@ -6857,42 +6580,39 @@
         <v>0</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O79" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>831</v>
+        <v>814</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="H80" s="2">
         <v>32000</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K80" s="2">
         <v>14.886862000000001</v>
@@ -6904,42 +6624,39 @@
         <v>0</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>832</v>
+        <v>815</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="H81" s="2">
         <v>52000</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K81" s="2">
         <v>18.288557000000001</v>
@@ -6951,42 +6668,39 @@
         <v>0</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O81" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>833</v>
+        <v>816</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="H82" s="2">
         <v>60000</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="K82" s="2">
         <v>15.702826999999999</v>
@@ -6998,30 +6712,27 @@
         <v>0</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O82" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>4</v>
@@ -7030,10 +6741,10 @@
         <v>10110</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K83" s="2">
         <v>13.735305</v>
@@ -7045,42 +6756,39 @@
         <v>0</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O83" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>835</v>
+        <v>818</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="H84" s="2">
         <v>22000</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K84" s="2">
         <v>12.606049000000001</v>
@@ -7092,30 +6800,27 @@
         <v>0</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O84" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>4</v>
@@ -7124,10 +6829,10 @@
         <v>10100</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K85" s="2">
         <v>13.739537</v>
@@ -7139,30 +6844,27 @@
         <v>0</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O85" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>837</v>
+        <v>820</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>4</v>
@@ -7171,10 +6873,10 @@
         <v>10120</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K86" s="2">
         <v>13.720420000000001</v>
@@ -7186,30 +6888,27 @@
         <v>0</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O86" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>838</v>
+        <v>821</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>4</v>
@@ -7218,10 +6917,10 @@
         <v>10700</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K87" s="2">
         <v>13.773898000000001</v>
@@ -7233,42 +6932,39 @@
         <v>0</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O87" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>839</v>
+        <v>822</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="H88" s="2">
         <v>21000</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K88" s="2">
         <v>12.682145</v>
@@ -7280,30 +6976,27 @@
         <v>0</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O88" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>840</v>
+        <v>823</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>4</v>
@@ -7312,10 +7005,10 @@
         <v>10110</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K89" s="2">
         <v>13.720767</v>
@@ -7327,30 +7020,27 @@
         <v>0</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O89" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>841</v>
+        <v>824</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>4</v>
@@ -7359,10 +7049,10 @@
         <v>10240</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K90" s="2">
         <v>13.752618999999999</v>
@@ -7374,30 +7064,27 @@
         <v>0</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O90" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>4</v>
@@ -7406,10 +7093,10 @@
         <v>10100</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K91" s="2">
         <v>13.740399999999999</v>
@@ -7421,30 +7108,27 @@
         <v>0</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O91" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>843</v>
+        <v>826</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>4</v>
@@ -7453,10 +7137,10 @@
         <v>10100</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K92" s="2">
         <v>13.737</v>
@@ -7468,30 +7152,27 @@
         <v>0</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O92" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>844</v>
+        <v>827</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>4</v>
@@ -7500,10 +7181,10 @@
         <v>10210</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K93" s="2">
         <v>13.887947</v>
@@ -7515,42 +7196,39 @@
         <v>0</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O93" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>845</v>
+        <v>828</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="H94" s="2">
         <v>84000</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K94" s="2">
         <v>9.1401420000000009</v>
@@ -7562,42 +7240,39 @@
         <v>0</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O94" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>846</v>
+        <v>829</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="H95" s="2">
         <v>57000</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K95" s="2">
         <v>19.910543000000001</v>
@@ -7609,30 +7284,27 @@
         <v>0</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O95" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>4</v>
@@ -7641,10 +7313,10 @@
         <v>10250</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K96" s="2">
         <v>13.710176000000001</v>
@@ -7656,42 +7328,39 @@
         <v>0</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O96" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>848</v>
+        <v>831</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H97" s="2">
         <v>12130</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K97" s="2">
         <v>13.962237</v>
@@ -7703,30 +7372,27 @@
         <v>0</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O97" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>849</v>
+        <v>832</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>4</v>
@@ -7735,10 +7401,10 @@
         <v>10260</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K98" s="2">
         <v>13.670018000000001</v>
@@ -7750,30 +7416,27 @@
         <v>0</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O98" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>850</v>
+        <v>833</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>4</v>
@@ -7782,10 +7445,10 @@
         <v>10120</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K99" s="2">
         <v>13.694651</v>
@@ -7797,30 +7460,27 @@
         <v>0</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O99" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>851</v>
+        <v>834</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>4</v>
@@ -7829,10 +7489,10 @@
         <v>10100</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K100" s="2">
         <v>13.750797</v>
@@ -7844,42 +7504,39 @@
         <v>0</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O100" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>852</v>
+        <v>835</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H101" s="2">
         <v>73000</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K101" s="2">
         <v>13.816895000000001</v>
@@ -7891,42 +7548,39 @@
         <v>0</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O101" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>853</v>
+        <v>836</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H102" s="2">
         <v>12150</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K102" s="2">
         <v>13.935321</v>
@@ -7938,42 +7592,39 @@
         <v>0</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O102" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>854</v>
+        <v>837</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="H103" s="2">
         <v>21130</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K103" s="2">
         <v>12.723402</v>
@@ -7985,30 +7636,27 @@
         <v>0</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O103" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>855</v>
+        <v>838</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>4</v>
@@ -8017,10 +7665,10 @@
         <v>10400</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K104" s="2">
         <v>13.783474</v>
@@ -8032,42 +7680,39 @@
         <v>0</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O104" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>856</v>
+        <v>839</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="H105" s="2">
         <v>74000</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K105" s="2">
         <v>13.551465</v>
@@ -8079,30 +7724,27 @@
         <v>0</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O105" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>857</v>
+        <v>840</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>4</v>
@@ -8111,10 +7753,10 @@
         <v>10160</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K106" s="2">
         <v>13.704817</v>
@@ -8126,42 +7768,39 @@
         <v>0</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O106" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H107" s="2">
         <v>20110</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K107" s="2">
         <v>13.162651</v>
@@ -8173,30 +7812,27 @@
         <v>0</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O107" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>859</v>
+        <v>842</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>4</v>
@@ -8205,10 +7841,10 @@
         <v>10120</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K108" s="2">
         <v>13.69605</v>
@@ -8220,42 +7856,39 @@
         <v>0</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O108" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>860</v>
+        <v>843</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="H109" s="2">
         <v>13000</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="K109" s="2">
         <v>14.354858</v>
@@ -8267,30 +7900,27 @@
         <v>0</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O109" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>861</v>
+        <v>844</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>4</v>
@@ -8299,10 +7929,10 @@
         <v>10150</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K110" s="2">
         <v>13.680495000000001</v>
@@ -8314,30 +7944,27 @@
         <v>0</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O110" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>862</v>
+        <v>845</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>4</v>
@@ -8346,10 +7973,10 @@
         <v>10120</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K111" s="2">
         <v>13.724164</v>
@@ -8361,30 +7988,27 @@
         <v>0</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O111" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>863</v>
+        <v>846</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>4</v>
@@ -8393,10 +8017,10 @@
         <v>10110</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K112" s="2">
         <v>13.741047999999999</v>
@@ -8408,30 +8032,27 @@
         <v>0</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O112" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>864</v>
+        <v>847</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>4</v>
@@ -8440,10 +8061,10 @@
         <v>10320</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K113" s="2">
         <v>13.777659</v>
@@ -8455,30 +8076,27 @@
         <v>0</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O113" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>865</v>
+        <v>848</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>4</v>
@@ -8487,10 +8105,10 @@
         <v>10310</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K114" s="2">
         <v>13.772365000000001</v>
@@ -8502,30 +8120,27 @@
         <v>0</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O114" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>4</v>
@@ -8534,10 +8149,10 @@
         <v>10900</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K115" s="2">
         <v>13.819765</v>
@@ -8549,30 +8164,27 @@
         <v>0</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O115" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>867</v>
+        <v>850</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>4</v>
@@ -8581,10 +8193,10 @@
         <v>10120</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K116" s="2">
         <v>13.7072</v>
@@ -8596,30 +8208,27 @@
         <v>0</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O116" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>868</v>
+        <v>851</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>4</v>
@@ -8628,10 +8237,10 @@
         <v>10250</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K117" s="2">
         <v>13.733335</v>
@@ -8643,30 +8252,27 @@
         <v>0</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O117" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>869</v>
+        <v>852</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>4</v>
@@ -8675,10 +8281,10 @@
         <v>10900</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K118" s="2">
         <v>13.808109999999999</v>
@@ -8690,30 +8296,27 @@
         <v>0</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O118" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>870</v>
+        <v>853</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>4</v>
@@ -8722,10 +8325,10 @@
         <v>10310</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K119" s="2">
         <v>13.755098</v>
@@ -8737,42 +8340,39 @@
         <v>0</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O119" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>871</v>
+        <v>854</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="H120" s="2">
         <v>50000</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K120" s="2">
         <v>18.783954999999999</v>
@@ -8784,30 +8384,27 @@
         <v>0</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O120" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>872</v>
+        <v>855</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>4</v>
@@ -8816,10 +8413,10 @@
         <v>10140</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K121" s="2">
         <v>13.669539</v>
@@ -8831,42 +8428,39 @@
         <v>0</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O121" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>873</v>
+        <v>856</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H122" s="2">
         <v>20000</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K122" s="2">
         <v>13.343408</v>
@@ -8878,30 +8472,27 @@
         <v>0</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O122" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>874</v>
+        <v>857</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>4</v>
@@ -8910,10 +8501,10 @@
         <v>10120</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K123" s="2">
         <v>13.721487</v>
@@ -8925,42 +8516,39 @@
         <v>0</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O123" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>875</v>
+        <v>858</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="H124" s="2">
         <v>70000</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K124" s="2">
         <v>13.536728</v>
@@ -8972,30 +8560,27 @@
         <v>0</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O124" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>876</v>
+        <v>859</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>4</v>
@@ -9004,10 +8589,10 @@
         <v>10400</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K125" s="2">
         <v>13.787800000000001</v>
@@ -9019,42 +8604,39 @@
         <v>0</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O125" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>877</v>
+        <v>860</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="H126" s="2">
         <v>21140</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K126" s="2">
         <v>13.019546</v>
@@ -9066,42 +8648,39 @@
         <v>0</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O126" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>878</v>
+        <v>861</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="H127" s="2">
         <v>71000</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K127" s="2">
         <v>14.020758000000001</v>
@@ -9113,42 +8692,39 @@
         <v>0</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O127" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>879</v>
+        <v>862</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="H128" s="2">
         <v>75000</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K128" s="2">
         <v>13.40494</v>
@@ -9160,42 +8736,39 @@
         <v>0</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O128" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="H129" s="2">
         <v>45000</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K129" s="2">
         <v>16.047450000000001</v>
@@ -9207,42 +8780,39 @@
         <v>0</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O129" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="H130" s="2">
         <v>92000</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K130" s="2">
         <v>7.5551310000000003</v>
@@ -9254,42 +8824,39 @@
         <v>0</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O130" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>882</v>
+        <v>865</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="H131" s="2">
         <v>47000</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K131" s="2">
         <v>17.156286000000001</v>
@@ -9301,30 +8868,27 @@
         <v>0</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O131" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>883</v>
+        <v>866</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>4</v>
@@ -9333,10 +8897,10 @@
         <v>10510</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K132" s="2">
         <v>13.8124</v>
@@ -9348,30 +8912,27 @@
         <v>0</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O132" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>884</v>
+        <v>867</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>4</v>
@@ -9380,10 +8941,10 @@
         <v>10110</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K133" s="2">
         <v>13.743230000000001</v>
@@ -9395,42 +8956,39 @@
         <v>0</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O133" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>885</v>
+        <v>868</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="H134" s="2">
         <v>21150</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K134" s="2">
         <v>12.716531</v>
@@ -9442,42 +9000,39 @@
         <v>0</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O134" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>886</v>
+        <v>869</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="H135" s="2">
         <v>90110</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K135" s="2">
         <v>7.0155900000000004</v>
@@ -9489,42 +9044,39 @@
         <v>0</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O135" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>887</v>
+        <v>870</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="H136" s="2">
         <v>41000</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K136" s="2">
         <v>17.420338000000001</v>
@@ -9536,42 +9088,39 @@
         <v>0</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O136" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>888</v>
+        <v>871</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H137" s="2">
         <v>83000</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K137" s="2">
         <v>7.8266400000000003</v>
@@ -9583,42 +9132,39 @@
         <v>0</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O137" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>889</v>
+        <v>872</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="H138" s="2">
         <v>50300</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K138" s="2">
         <v>18.788098000000002</v>
@@ -9630,30 +9176,27 @@
         <v>0</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O138" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>890</v>
+        <v>873</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>4</v>
@@ -9662,10 +9205,10 @@
         <v>10500</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K139" s="2">
         <v>13.729124000000001</v>
@@ -9677,30 +9220,27 @@
         <v>0</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O139" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>891</v>
+        <v>874</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>4</v>
@@ -9709,10 +9249,10 @@
         <v>10100</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K140" s="2">
         <v>13.740145999999999</v>
@@ -9724,30 +9264,27 @@
         <v>0</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O140" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>892</v>
+        <v>875</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>4</v>
@@ -9756,10 +9293,10 @@
         <v>10110</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K141" s="2">
         <v>13.741744000000001</v>
@@ -9771,42 +9308,39 @@
         <v>0</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O141" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="H142" s="2">
         <v>50200</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K142" s="2">
         <v>18.800138</v>
@@ -9818,30 +9352,27 @@
         <v>0</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O142" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>893</v>
+        <v>876</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>4</v>
@@ -9850,10 +9381,10 @@
         <v>10900</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K143" s="2">
         <v>13.834663000000001</v>
@@ -9865,42 +9396,39 @@
         <v>0</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O143" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>894</v>
+        <v>877</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H144" s="2">
         <v>10270</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K144" s="2">
         <v>13.638839000000001</v>
@@ -9912,30 +9440,27 @@
         <v>0</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O144" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>895</v>
+        <v>878</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>4</v>
@@ -9944,10 +9469,10 @@
         <v>10250</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K145" s="2">
         <v>13.729526</v>
@@ -9959,30 +9484,27 @@
         <v>0</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O145" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>896</v>
+        <v>879</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>4</v>
@@ -9991,10 +9513,10 @@
         <v>10240</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K146" s="2">
         <v>13.76502</v>
@@ -10006,42 +9528,39 @@
         <v>0</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O146" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>897</v>
+        <v>880</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H147" s="2">
         <v>11110</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K147" s="2">
         <v>13.91385</v>
@@ -10053,42 +9572,39 @@
         <v>0</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O147" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>898</v>
+        <v>881</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H148" s="2">
         <v>11120</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K148" s="2">
         <v>13.917501</v>
@@ -10100,30 +9616,27 @@
         <v>0</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O148" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>899</v>
+        <v>882</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>4</v>
@@ -10132,10 +9645,10 @@
         <v>10600</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K149" s="2">
         <v>13.721811000000001</v>
@@ -10147,30 +9660,27 @@
         <v>0</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O149" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>900</v>
+        <v>883</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>4</v>
@@ -10179,10 +9689,10 @@
         <v>10600</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K150" s="2">
         <v>13.709250000000001</v>
@@ -10194,30 +9704,27 @@
         <v>0</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O150" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>901</v>
+        <v>884</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>4</v>
@@ -10226,10 +9733,10 @@
         <v>10310</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K151" s="2">
         <v>13.766588</v>
@@ -10241,30 +9748,27 @@
         <v>0</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O151" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>902</v>
+        <v>885</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>4</v>
@@ -10273,10 +9777,10 @@
         <v>10150</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K152" s="2">
         <v>13.677467</v>
@@ -10288,30 +9792,27 @@
         <v>0</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O152" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>903</v>
+        <v>886</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>4</v>
@@ -10320,10 +9821,10 @@
         <v>10400</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K153" s="2">
         <v>13.754111999999999</v>
@@ -10335,30 +9836,27 @@
         <v>0</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O153" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>904</v>
+        <v>887</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>4</v>
@@ -10367,10 +9865,10 @@
         <v>10110</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K154" s="2">
         <v>13.728609000000001</v>
@@ -10382,42 +9880,39 @@
         <v>0</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O154" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>905</v>
+        <v>888</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H155" s="2">
         <v>10400</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K155" s="2">
         <v>13.777850000000001</v>
@@ -10429,42 +9924,39 @@
         <v>0</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O155" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>906</v>
+        <v>889</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="H156" s="2">
         <v>31000</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K156" s="2">
         <v>14.988350000000001</v>
@@ -10476,10 +9968,7 @@
         <v>0</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O156" s="2" t="s">
-        <v>748</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>

--- a/Bank.xlsx
+++ b/Bank.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="920">
   <si>
     <t>BRN_1760</t>
   </si>
@@ -2776,6 +2776,9 @@
   </si>
   <si>
     <t>เปลี่ยนเวลาทำการ ทุกวันจันทร์ - วันศุกร์ 10.00 - 17.00 น.</t>
+  </si>
+  <si>
+    <t>ไม่ระบุเวลา</t>
   </si>
 </sst>
 </file>
@@ -3162,8 +3165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="Q58" sqref="Q58:Q156"/>
+    <sheetView tabSelected="1" topLeftCell="H103" workbookViewId="0">
+      <selection activeCell="K137" sqref="K137:L156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3211,10 +3214,10 @@
       <c r="J1" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>903</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -3371,10 +3374,10 @@
         <v>17</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M4" s="2">
         <v>13.750666000000001</v>
@@ -3689,10 +3692,10 @@
         <v>52</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M10" s="2">
         <v>13.68628</v>
@@ -3742,10 +3745,10 @@
         <v>59</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M11" s="2">
         <v>7.8851069999999996</v>
@@ -3795,10 +3798,10 @@
         <v>17</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M12" s="2">
         <v>13.746428</v>
@@ -4060,10 +4063,10 @@
         <v>45</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M17" s="2">
         <v>13.702631</v>
@@ -5226,10 +5229,10 @@
         <v>196</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M39" s="2">
         <v>13.727149000000001</v>
@@ -5279,10 +5282,10 @@
         <v>52</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M40" s="2">
         <v>13.735849999999999</v>
@@ -5332,10 +5335,10 @@
         <v>205</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M41" s="2">
         <v>13.739057000000001</v>
@@ -5756,10 +5759,10 @@
         <v>71</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M49" s="2">
         <v>12.927666</v>
@@ -5809,10 +5812,10 @@
         <v>250</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M50" s="2">
         <v>13.420329000000001</v>
@@ -5862,10 +5865,10 @@
         <v>255</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M51" s="2">
         <v>12.971168</v>
@@ -6021,10 +6024,10 @@
         <v>271</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M54" s="2">
         <v>17.404153999999998</v>
@@ -6233,10 +6236,10 @@
         <v>271</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M58" s="2">
         <v>13.731427999999999</v>
@@ -6286,10 +6289,10 @@
         <v>271</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M59" s="2">
         <v>13.737927000000001</v>
@@ -6339,10 +6342,10 @@
         <v>271</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M60" s="2">
         <v>13.747645</v>
@@ -6392,10 +6395,10 @@
         <v>271</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M61" s="2">
         <v>13.367065999999999</v>
@@ -6445,10 +6448,10 @@
         <v>271</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M62" s="2">
         <v>14.973026000000001</v>
@@ -6498,10 +6501,10 @@
         <v>271</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M63" s="2">
         <v>8.4409030000000005</v>
@@ -6551,10 +6554,10 @@
         <v>271</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M64" s="2">
         <v>7.0026919999999997</v>
@@ -6604,10 +6607,10 @@
         <v>324</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M65" s="2">
         <v>6.5510890000000002</v>
@@ -6657,10 +6660,10 @@
         <v>271</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M66" s="2">
         <v>13.311185</v>
@@ -6710,10 +6713,10 @@
         <v>334</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M67" s="2">
         <v>18.781120000000001</v>
@@ -6763,10 +6766,10 @@
         <v>271</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M68" s="2">
         <v>13.692282000000001</v>
@@ -6816,10 +6819,10 @@
         <v>271</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M69" s="2">
         <v>7.880992</v>
@@ -6869,10 +6872,10 @@
         <v>271</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M70" s="2">
         <v>15.232138000000001</v>
@@ -6922,10 +6925,10 @@
         <v>271</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M71" s="2">
         <v>16.435815000000002</v>
@@ -6975,10 +6978,10 @@
         <v>271</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M72" s="2">
         <v>13.843832000000001</v>
@@ -7028,10 +7031,10 @@
         <v>271</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M73" s="2">
         <v>13.723876000000001</v>
@@ -7081,10 +7084,10 @@
         <v>271</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M74" s="2">
         <v>13.649533</v>
@@ -7134,10 +7137,10 @@
         <v>334</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M75" s="2">
         <v>16.817119999999999</v>
@@ -7187,10 +7190,10 @@
         <v>271</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M76" s="2">
         <v>13.768891</v>
@@ -7240,10 +7243,10 @@
         <v>271</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M77" s="2">
         <v>14.525961000000001</v>
@@ -7293,10 +7296,10 @@
         <v>271</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M78" s="2">
         <v>13.686303000000001</v>
@@ -7346,10 +7349,10 @@
         <v>271</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M79" s="2">
         <v>13.796044</v>
@@ -7399,10 +7402,10 @@
         <v>271</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M80" s="2">
         <v>14.886862000000001</v>
@@ -7452,10 +7455,10 @@
         <v>271</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M81" s="2">
         <v>18.288557000000001</v>
@@ -7505,10 +7508,10 @@
         <v>405</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M82" s="2">
         <v>15.702826999999999</v>
@@ -7558,10 +7561,10 @@
         <v>271</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M83" s="2">
         <v>13.735305</v>
@@ -7611,10 +7614,10 @@
         <v>271</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M84" s="2">
         <v>12.606049000000001</v>
@@ -7664,10 +7667,10 @@
         <v>271</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M85" s="2">
         <v>13.739537</v>
@@ -7717,10 +7720,10 @@
         <v>271</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M86" s="2">
         <v>13.720420000000001</v>
@@ -7770,10 +7773,10 @@
         <v>271</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M87" s="2">
         <v>13.773898000000001</v>
@@ -7823,10 +7826,10 @@
         <v>271</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M88" s="2">
         <v>12.682145</v>
@@ -7876,10 +7879,10 @@
         <v>271</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M89" s="2">
         <v>13.720767</v>
@@ -7929,10 +7932,10 @@
         <v>271</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M90" s="2">
         <v>13.752618999999999</v>
@@ -7982,10 +7985,10 @@
         <v>17</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M91" s="2">
         <v>13.740399999999999</v>
@@ -8035,10 +8038,10 @@
         <v>271</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M92" s="2">
         <v>13.737</v>
@@ -8088,10 +8091,10 @@
         <v>271</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M93" s="2">
         <v>13.887947</v>
@@ -8141,10 +8144,10 @@
         <v>271</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M94" s="2">
         <v>9.1401420000000009</v>
@@ -8194,10 +8197,10 @@
         <v>271</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M95" s="2">
         <v>19.910543000000001</v>
@@ -8247,10 +8250,10 @@
         <v>271</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M96" s="2">
         <v>13.710176000000001</v>
@@ -8300,10 +8303,10 @@
         <v>271</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M97" s="2">
         <v>13.962237</v>
@@ -8353,10 +8356,10 @@
         <v>271</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M98" s="2">
         <v>13.670018000000001</v>
@@ -8406,10 +8409,10 @@
         <v>271</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M99" s="2">
         <v>13.694651</v>
@@ -8459,10 +8462,10 @@
         <v>271</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M100" s="2">
         <v>13.750797</v>
@@ -8512,10 +8515,10 @@
         <v>271</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M101" s="2">
         <v>13.816895000000001</v>
@@ -8565,10 +8568,10 @@
         <v>271</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M102" s="2">
         <v>13.935321</v>
@@ -8618,10 +8621,10 @@
         <v>17</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M103" s="2">
         <v>12.723402</v>
@@ -8671,10 +8674,10 @@
         <v>271</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M104" s="2">
         <v>13.783474</v>
@@ -8724,10 +8727,10 @@
         <v>271</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M105" s="2">
         <v>13.551465</v>
@@ -8777,10 +8780,10 @@
         <v>271</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M106" s="2">
         <v>13.704817</v>
@@ -8830,10 +8833,10 @@
         <v>271</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M107" s="2">
         <v>13.162651</v>
@@ -8883,10 +8886,10 @@
         <v>271</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M108" s="2">
         <v>13.69605</v>
@@ -8936,10 +8939,10 @@
         <v>334</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M109" s="2">
         <v>14.354858</v>
@@ -8989,10 +8992,10 @@
         <v>271</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M110" s="2">
         <v>13.680495000000001</v>
@@ -9042,10 +9045,10 @@
         <v>271</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M111" s="2">
         <v>13.724164</v>
@@ -9095,10 +9098,10 @@
         <v>271</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M112" s="2">
         <v>13.741047999999999</v>
@@ -9148,10 +9151,10 @@
         <v>271</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M113" s="2">
         <v>13.777659</v>
@@ -9201,10 +9204,10 @@
         <v>271</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M114" s="2">
         <v>13.772365000000001</v>
@@ -9254,10 +9257,10 @@
         <v>271</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M115" s="2">
         <v>13.819765</v>
@@ -9307,10 +9310,10 @@
         <v>271</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M116" s="2">
         <v>13.7072</v>
@@ -9360,10 +9363,10 @@
         <v>271</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M117" s="2">
         <v>13.733335</v>
@@ -9413,10 +9416,10 @@
         <v>271</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M118" s="2">
         <v>13.808109999999999</v>
@@ -9466,10 +9469,10 @@
         <v>271</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M119" s="2">
         <v>13.755098</v>
@@ -9519,10 +9522,10 @@
         <v>271</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M120" s="2">
         <v>18.783954999999999</v>
@@ -9572,10 +9575,10 @@
         <v>271</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M121" s="2">
         <v>13.669539</v>
@@ -9625,10 +9628,10 @@
         <v>271</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M122" s="2">
         <v>13.343408</v>
@@ -9678,10 +9681,10 @@
         <v>271</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M123" s="2">
         <v>13.721487</v>
@@ -9731,10 +9734,10 @@
         <v>271</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M124" s="2">
         <v>13.536728</v>
@@ -9784,10 +9787,10 @@
         <v>271</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M125" s="2">
         <v>13.787800000000001</v>
@@ -9837,10 +9840,10 @@
         <v>271</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M126" s="2">
         <v>13.019546</v>
@@ -9890,10 +9893,10 @@
         <v>271</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M127" s="2">
         <v>14.020758000000001</v>
@@ -9943,10 +9946,10 @@
         <v>271</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M128" s="2">
         <v>13.40494</v>
@@ -9996,10 +9999,10 @@
         <v>271</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M129" s="2">
         <v>16.047450000000001</v>
@@ -10049,10 +10052,10 @@
         <v>271</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M130" s="2">
         <v>7.5551310000000003</v>
@@ -10102,10 +10105,10 @@
         <v>271</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M131" s="2">
         <v>17.156286000000001</v>
@@ -10155,10 +10158,10 @@
         <v>271</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M132" s="2">
         <v>13.8124</v>
@@ -10208,10 +10211,10 @@
         <v>271</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M133" s="2">
         <v>13.743230000000001</v>
@@ -10261,10 +10264,10 @@
         <v>17</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M134" s="2">
         <v>12.716531</v>
@@ -10314,10 +10317,10 @@
         <v>271</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M135" s="2">
         <v>7.0155900000000004</v>
@@ -10420,10 +10423,10 @@
         <v>271</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M137" s="2">
         <v>7.8266400000000003</v>
@@ -10473,10 +10476,10 @@
         <v>271</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M138" s="2">
         <v>18.788098000000002</v>
@@ -10526,10 +10529,10 @@
         <v>271</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M139" s="2">
         <v>13.729124000000001</v>
@@ -10579,10 +10582,10 @@
         <v>271</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M140" s="2">
         <v>13.740145999999999</v>
@@ -10632,10 +10635,10 @@
         <v>271</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M141" s="2">
         <v>13.741744000000001</v>
@@ -10685,10 +10688,10 @@
         <v>271</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M142" s="2">
         <v>18.800138</v>
@@ -10738,10 +10741,10 @@
         <v>271</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M143" s="2">
         <v>13.834663000000001</v>
@@ -10791,10 +10794,10 @@
         <v>271</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M144" s="2">
         <v>13.638839000000001</v>
@@ -10844,10 +10847,10 @@
         <v>271</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M145" s="2">
         <v>13.729526</v>
@@ -10897,10 +10900,10 @@
         <v>271</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M146" s="2">
         <v>13.76502</v>
@@ -10950,10 +10953,10 @@
         <v>271</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M147" s="2">
         <v>13.91385</v>
@@ -11003,10 +11006,10 @@
         <v>271</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M148" s="2">
         <v>13.917501</v>
@@ -11056,10 +11059,10 @@
         <v>271</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M149" s="2">
         <v>13.721811000000001</v>
@@ -11109,10 +11112,10 @@
         <v>271</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M150" s="2">
         <v>13.709250000000001</v>
@@ -11162,10 +11165,10 @@
         <v>271</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M151" s="2">
         <v>13.766588</v>
@@ -11215,10 +11218,10 @@
         <v>271</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M152" s="2">
         <v>13.677467</v>
@@ -11268,10 +11271,10 @@
         <v>17</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M153" s="2">
         <v>13.754111999999999</v>
@@ -11321,10 +11324,10 @@
         <v>271</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M154" s="2">
         <v>13.728609000000001</v>
@@ -11374,10 +11377,10 @@
         <v>52</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M155" s="2">
         <v>13.777850000000001</v>
@@ -11427,10 +11430,10 @@
         <v>271</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="M156" s="2">
         <v>14.988350000000001</v>

--- a/Bank.xlsx
+++ b/Bank.xlsx
@@ -2736,9 +2736,6 @@
     <t>9:30-18:30น.</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
@@ -2779,6 +2776,9 @@
   </si>
   <si>
     <t>ไม่ระบุเวลา</t>
+  </si>
+  <si>
+    <t>รออัพเดทจากธนาคาร</t>
   </si>
 </sst>
 </file>
@@ -3165,8 +3165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H103" workbookViewId="0">
-      <selection activeCell="K137" sqref="K137:L156"/>
+    <sheetView tabSelected="1" topLeftCell="K58" workbookViewId="0">
+      <selection activeCell="Q166" sqref="Q166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3233,7 +3233,7 @@
         <v>897</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -3286,7 +3286,7 @@
         <v>731</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -3339,7 +3339,7 @@
         <v>731</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -3374,10 +3374,10 @@
         <v>17</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M4" s="2">
         <v>13.750666000000001</v>
@@ -3392,7 +3392,7 @@
         <v>731</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -3445,7 +3445,7 @@
         <v>731</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -3498,7 +3498,7 @@
         <v>731</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -3551,7 +3551,7 @@
         <v>731</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -3604,7 +3604,7 @@
         <v>731</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -3657,7 +3657,7 @@
         <v>731</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -3692,10 +3692,10 @@
         <v>52</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M10" s="2">
         <v>13.68628</v>
@@ -3710,7 +3710,7 @@
         <v>731</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -3745,10 +3745,10 @@
         <v>59</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M11" s="2">
         <v>7.8851069999999996</v>
@@ -3763,7 +3763,7 @@
         <v>731</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -3798,10 +3798,10 @@
         <v>17</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M12" s="2">
         <v>13.746428</v>
@@ -3816,7 +3816,7 @@
         <v>731</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -3869,7 +3869,7 @@
         <v>731</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -3922,7 +3922,7 @@
         <v>731</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -3975,7 +3975,7 @@
         <v>731</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -4028,7 +4028,7 @@
         <v>731</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -4063,10 +4063,10 @@
         <v>45</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M17" s="2">
         <v>13.702631</v>
@@ -4081,7 +4081,7 @@
         <v>731</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -4134,7 +4134,7 @@
         <v>731</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -4187,7 +4187,7 @@
         <v>731</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -4240,7 +4240,7 @@
         <v>731</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -4293,7 +4293,7 @@
         <v>731</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -4346,7 +4346,7 @@
         <v>731</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -4399,7 +4399,7 @@
         <v>731</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -4452,7 +4452,7 @@
         <v>731</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -4505,7 +4505,7 @@
         <v>731</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -4558,7 +4558,7 @@
         <v>731</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -4611,7 +4611,7 @@
         <v>731</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -4664,7 +4664,7 @@
         <v>731</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -4717,7 +4717,7 @@
         <v>731</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -4770,7 +4770,7 @@
         <v>731</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -4823,7 +4823,7 @@
         <v>731</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -4876,7 +4876,7 @@
         <v>731</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -4929,7 +4929,7 @@
         <v>731</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -4982,7 +4982,7 @@
         <v>731</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -5035,7 +5035,7 @@
         <v>731</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -5088,7 +5088,7 @@
         <v>731</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -5141,7 +5141,7 @@
         <v>731</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -5194,7 +5194,7 @@
         <v>731</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -5229,10 +5229,10 @@
         <v>196</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M39" s="2">
         <v>13.727149000000001</v>
@@ -5247,7 +5247,7 @@
         <v>731</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -5282,10 +5282,10 @@
         <v>52</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M40" s="2">
         <v>13.735849999999999</v>
@@ -5300,7 +5300,7 @@
         <v>731</v>
       </c>
       <c r="Q40" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -5335,10 +5335,10 @@
         <v>205</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M41" s="2">
         <v>13.739057000000001</v>
@@ -5353,7 +5353,7 @@
         <v>731</v>
       </c>
       <c r="Q41" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -5406,7 +5406,7 @@
         <v>731</v>
       </c>
       <c r="Q42" s="6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -5459,7 +5459,7 @@
         <v>731</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
@@ -5512,7 +5512,7 @@
         <v>731</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -5565,7 +5565,7 @@
         <v>731</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -5618,7 +5618,7 @@
         <v>731</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
@@ -5671,7 +5671,7 @@
         <v>731</v>
       </c>
       <c r="Q47" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
@@ -5724,7 +5724,7 @@
         <v>731</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -5759,10 +5759,10 @@
         <v>71</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M49" s="2">
         <v>12.927666</v>
@@ -5777,7 +5777,7 @@
         <v>731</v>
       </c>
       <c r="Q49" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -5812,10 +5812,10 @@
         <v>250</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M50" s="2">
         <v>13.420329000000001</v>
@@ -5830,7 +5830,7 @@
         <v>731</v>
       </c>
       <c r="Q50" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -5865,10 +5865,10 @@
         <v>255</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M51" s="2">
         <v>12.971168</v>
@@ -5883,7 +5883,7 @@
         <v>731</v>
       </c>
       <c r="Q51" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -5936,7 +5936,7 @@
         <v>731</v>
       </c>
       <c r="Q52" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
@@ -5989,7 +5989,7 @@
         <v>731</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -6024,10 +6024,10 @@
         <v>271</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M54" s="2">
         <v>17.404153999999998</v>
@@ -6042,7 +6042,7 @@
         <v>731</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -6095,7 +6095,7 @@
         <v>731</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -6148,7 +6148,7 @@
         <v>731</v>
       </c>
       <c r="Q56" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
@@ -6201,7 +6201,7 @@
         <v>731</v>
       </c>
       <c r="Q57" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -6236,10 +6236,10 @@
         <v>271</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M58" s="2">
         <v>13.731427999999999</v>
@@ -6254,7 +6254,7 @@
         <v>731</v>
       </c>
       <c r="Q58" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -6289,10 +6289,10 @@
         <v>271</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M59" s="2">
         <v>13.737927000000001</v>
@@ -6307,7 +6307,7 @@
         <v>731</v>
       </c>
       <c r="Q59" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -6342,10 +6342,10 @@
         <v>271</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M60" s="2">
         <v>13.747645</v>
@@ -6360,7 +6360,7 @@
         <v>731</v>
       </c>
       <c r="Q60" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -6395,10 +6395,10 @@
         <v>271</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M61" s="2">
         <v>13.367065999999999</v>
@@ -6413,7 +6413,7 @@
         <v>731</v>
       </c>
       <c r="Q61" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -6448,10 +6448,10 @@
         <v>271</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M62" s="2">
         <v>14.973026000000001</v>
@@ -6466,7 +6466,7 @@
         <v>731</v>
       </c>
       <c r="Q62" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -6501,10 +6501,10 @@
         <v>271</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M63" s="2">
         <v>8.4409030000000005</v>
@@ -6519,7 +6519,7 @@
         <v>731</v>
       </c>
       <c r="Q63" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -6554,10 +6554,10 @@
         <v>271</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M64" s="2">
         <v>7.0026919999999997</v>
@@ -6572,7 +6572,7 @@
         <v>731</v>
       </c>
       <c r="Q64" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
@@ -6607,10 +6607,10 @@
         <v>324</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M65" s="2">
         <v>6.5510890000000002</v>
@@ -6625,7 +6625,7 @@
         <v>731</v>
       </c>
       <c r="Q65" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
@@ -6660,10 +6660,10 @@
         <v>271</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M66" s="2">
         <v>13.311185</v>
@@ -6678,7 +6678,7 @@
         <v>731</v>
       </c>
       <c r="Q66" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
@@ -6713,10 +6713,10 @@
         <v>334</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M67" s="2">
         <v>18.781120000000001</v>
@@ -6731,7 +6731,7 @@
         <v>731</v>
       </c>
       <c r="Q67" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -6766,10 +6766,10 @@
         <v>271</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M68" s="2">
         <v>13.692282000000001</v>
@@ -6784,7 +6784,7 @@
         <v>731</v>
       </c>
       <c r="Q68" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
@@ -6819,10 +6819,10 @@
         <v>271</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M69" s="2">
         <v>7.880992</v>
@@ -6837,7 +6837,7 @@
         <v>731</v>
       </c>
       <c r="Q69" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
@@ -6872,10 +6872,10 @@
         <v>271</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M70" s="2">
         <v>15.232138000000001</v>
@@ -6890,7 +6890,7 @@
         <v>731</v>
       </c>
       <c r="Q70" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
@@ -6925,10 +6925,10 @@
         <v>271</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M71" s="2">
         <v>16.435815000000002</v>
@@ -6943,7 +6943,7 @@
         <v>731</v>
       </c>
       <c r="Q71" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
@@ -6978,10 +6978,10 @@
         <v>271</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M72" s="2">
         <v>13.843832000000001</v>
@@ -6996,7 +6996,7 @@
         <v>731</v>
       </c>
       <c r="Q72" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
@@ -7031,10 +7031,10 @@
         <v>271</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M73" s="2">
         <v>13.723876000000001</v>
@@ -7049,7 +7049,7 @@
         <v>731</v>
       </c>
       <c r="Q73" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
@@ -7084,10 +7084,10 @@
         <v>271</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M74" s="2">
         <v>13.649533</v>
@@ -7102,7 +7102,7 @@
         <v>731</v>
       </c>
       <c r="Q74" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
@@ -7137,10 +7137,10 @@
         <v>334</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M75" s="2">
         <v>16.817119999999999</v>
@@ -7155,7 +7155,7 @@
         <v>731</v>
       </c>
       <c r="Q75" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
@@ -7190,10 +7190,10 @@
         <v>271</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M76" s="2">
         <v>13.768891</v>
@@ -7208,7 +7208,7 @@
         <v>731</v>
       </c>
       <c r="Q76" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
@@ -7243,10 +7243,10 @@
         <v>271</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M77" s="2">
         <v>14.525961000000001</v>
@@ -7261,7 +7261,7 @@
         <v>731</v>
       </c>
       <c r="Q77" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -7296,10 +7296,10 @@
         <v>271</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M78" s="2">
         <v>13.686303000000001</v>
@@ -7314,7 +7314,7 @@
         <v>731</v>
       </c>
       <c r="Q78" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
@@ -7349,10 +7349,10 @@
         <v>271</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M79" s="2">
         <v>13.796044</v>
@@ -7367,7 +7367,7 @@
         <v>731</v>
       </c>
       <c r="Q79" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
@@ -7402,10 +7402,10 @@
         <v>271</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M80" s="2">
         <v>14.886862000000001</v>
@@ -7420,7 +7420,7 @@
         <v>731</v>
       </c>
       <c r="Q80" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
@@ -7455,10 +7455,10 @@
         <v>271</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M81" s="2">
         <v>18.288557000000001</v>
@@ -7473,7 +7473,7 @@
         <v>731</v>
       </c>
       <c r="Q81" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
@@ -7508,10 +7508,10 @@
         <v>405</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M82" s="2">
         <v>15.702826999999999</v>
@@ -7526,7 +7526,7 @@
         <v>731</v>
       </c>
       <c r="Q82" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
@@ -7561,10 +7561,10 @@
         <v>271</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M83" s="2">
         <v>13.735305</v>
@@ -7579,7 +7579,7 @@
         <v>731</v>
       </c>
       <c r="Q83" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
@@ -7614,10 +7614,10 @@
         <v>271</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M84" s="2">
         <v>12.606049000000001</v>
@@ -7632,7 +7632,7 @@
         <v>731</v>
       </c>
       <c r="Q84" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
@@ -7667,10 +7667,10 @@
         <v>271</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M85" s="2">
         <v>13.739537</v>
@@ -7685,7 +7685,7 @@
         <v>731</v>
       </c>
       <c r="Q85" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
@@ -7720,10 +7720,10 @@
         <v>271</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M86" s="2">
         <v>13.720420000000001</v>
@@ -7738,7 +7738,7 @@
         <v>731</v>
       </c>
       <c r="Q86" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
@@ -7773,10 +7773,10 @@
         <v>271</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M87" s="2">
         <v>13.773898000000001</v>
@@ -7791,7 +7791,7 @@
         <v>731</v>
       </c>
       <c r="Q87" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
@@ -7826,10 +7826,10 @@
         <v>271</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M88" s="2">
         <v>12.682145</v>
@@ -7844,7 +7844,7 @@
         <v>731</v>
       </c>
       <c r="Q88" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
@@ -7879,10 +7879,10 @@
         <v>271</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M89" s="2">
         <v>13.720767</v>
@@ -7897,7 +7897,7 @@
         <v>731</v>
       </c>
       <c r="Q89" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
@@ -7932,10 +7932,10 @@
         <v>271</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M90" s="2">
         <v>13.752618999999999</v>
@@ -7950,7 +7950,7 @@
         <v>731</v>
       </c>
       <c r="Q90" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
@@ -7985,10 +7985,10 @@
         <v>17</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M91" s="2">
         <v>13.740399999999999</v>
@@ -8003,7 +8003,7 @@
         <v>731</v>
       </c>
       <c r="Q91" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
@@ -8038,10 +8038,10 @@
         <v>271</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M92" s="2">
         <v>13.737</v>
@@ -8056,7 +8056,7 @@
         <v>731</v>
       </c>
       <c r="Q92" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
@@ -8091,10 +8091,10 @@
         <v>271</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M93" s="2">
         <v>13.887947</v>
@@ -8109,7 +8109,7 @@
         <v>731</v>
       </c>
       <c r="Q93" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
@@ -8144,10 +8144,10 @@
         <v>271</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M94" s="2">
         <v>9.1401420000000009</v>
@@ -8162,7 +8162,7 @@
         <v>731</v>
       </c>
       <c r="Q94" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
@@ -8197,10 +8197,10 @@
         <v>271</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M95" s="2">
         <v>19.910543000000001</v>
@@ -8215,7 +8215,7 @@
         <v>731</v>
       </c>
       <c r="Q95" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
@@ -8250,10 +8250,10 @@
         <v>271</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M96" s="2">
         <v>13.710176000000001</v>
@@ -8268,7 +8268,7 @@
         <v>731</v>
       </c>
       <c r="Q96" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
@@ -8303,10 +8303,10 @@
         <v>271</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M97" s="2">
         <v>13.962237</v>
@@ -8321,7 +8321,7 @@
         <v>731</v>
       </c>
       <c r="Q97" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
@@ -8356,10 +8356,10 @@
         <v>271</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M98" s="2">
         <v>13.670018000000001</v>
@@ -8374,7 +8374,7 @@
         <v>731</v>
       </c>
       <c r="Q98" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
@@ -8409,10 +8409,10 @@
         <v>271</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M99" s="2">
         <v>13.694651</v>
@@ -8427,7 +8427,7 @@
         <v>731</v>
       </c>
       <c r="Q99" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
@@ -8462,10 +8462,10 @@
         <v>271</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M100" s="2">
         <v>13.750797</v>
@@ -8480,7 +8480,7 @@
         <v>731</v>
       </c>
       <c r="Q100" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
@@ -8515,10 +8515,10 @@
         <v>271</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M101" s="2">
         <v>13.816895000000001</v>
@@ -8533,7 +8533,7 @@
         <v>731</v>
       </c>
       <c r="Q101" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
@@ -8568,10 +8568,10 @@
         <v>271</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M102" s="2">
         <v>13.935321</v>
@@ -8586,7 +8586,7 @@
         <v>731</v>
       </c>
       <c r="Q102" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
@@ -8621,10 +8621,10 @@
         <v>17</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M103" s="2">
         <v>12.723402</v>
@@ -8639,7 +8639,7 @@
         <v>731</v>
       </c>
       <c r="Q103" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
@@ -8674,10 +8674,10 @@
         <v>271</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M104" s="2">
         <v>13.783474</v>
@@ -8692,7 +8692,7 @@
         <v>731</v>
       </c>
       <c r="Q104" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
@@ -8727,10 +8727,10 @@
         <v>271</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M105" s="2">
         <v>13.551465</v>
@@ -8745,7 +8745,7 @@
         <v>731</v>
       </c>
       <c r="Q105" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
@@ -8780,10 +8780,10 @@
         <v>271</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M106" s="2">
         <v>13.704817</v>
@@ -8798,7 +8798,7 @@
         <v>731</v>
       </c>
       <c r="Q106" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
@@ -8833,10 +8833,10 @@
         <v>271</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M107" s="2">
         <v>13.162651</v>
@@ -8851,7 +8851,7 @@
         <v>731</v>
       </c>
       <c r="Q107" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
@@ -8886,10 +8886,10 @@
         <v>271</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M108" s="2">
         <v>13.69605</v>
@@ -8904,7 +8904,7 @@
         <v>731</v>
       </c>
       <c r="Q108" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
@@ -8939,10 +8939,10 @@
         <v>334</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M109" s="2">
         <v>14.354858</v>
@@ -8957,7 +8957,7 @@
         <v>731</v>
       </c>
       <c r="Q109" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
@@ -8992,10 +8992,10 @@
         <v>271</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M110" s="2">
         <v>13.680495000000001</v>
@@ -9010,7 +9010,7 @@
         <v>731</v>
       </c>
       <c r="Q110" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
@@ -9045,10 +9045,10 @@
         <v>271</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M111" s="2">
         <v>13.724164</v>
@@ -9063,7 +9063,7 @@
         <v>731</v>
       </c>
       <c r="Q111" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
@@ -9098,10 +9098,10 @@
         <v>271</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M112" s="2">
         <v>13.741047999999999</v>
@@ -9116,7 +9116,7 @@
         <v>731</v>
       </c>
       <c r="Q112" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
@@ -9151,10 +9151,10 @@
         <v>271</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M113" s="2">
         <v>13.777659</v>
@@ -9169,7 +9169,7 @@
         <v>731</v>
       </c>
       <c r="Q113" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
@@ -9204,10 +9204,10 @@
         <v>271</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M114" s="2">
         <v>13.772365000000001</v>
@@ -9222,7 +9222,7 @@
         <v>731</v>
       </c>
       <c r="Q114" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
@@ -9257,10 +9257,10 @@
         <v>271</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M115" s="2">
         <v>13.819765</v>
@@ -9275,7 +9275,7 @@
         <v>731</v>
       </c>
       <c r="Q115" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
@@ -9310,10 +9310,10 @@
         <v>271</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M116" s="2">
         <v>13.7072</v>
@@ -9328,7 +9328,7 @@
         <v>731</v>
       </c>
       <c r="Q116" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
@@ -9363,10 +9363,10 @@
         <v>271</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M117" s="2">
         <v>13.733335</v>
@@ -9381,7 +9381,7 @@
         <v>731</v>
       </c>
       <c r="Q117" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
@@ -9416,10 +9416,10 @@
         <v>271</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M118" s="2">
         <v>13.808109999999999</v>
@@ -9434,7 +9434,7 @@
         <v>731</v>
       </c>
       <c r="Q118" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
@@ -9469,10 +9469,10 @@
         <v>271</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M119" s="2">
         <v>13.755098</v>
@@ -9487,7 +9487,7 @@
         <v>731</v>
       </c>
       <c r="Q119" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
@@ -9522,10 +9522,10 @@
         <v>271</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M120" s="2">
         <v>18.783954999999999</v>
@@ -9540,7 +9540,7 @@
         <v>731</v>
       </c>
       <c r="Q120" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
@@ -9575,10 +9575,10 @@
         <v>271</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M121" s="2">
         <v>13.669539</v>
@@ -9593,7 +9593,7 @@
         <v>731</v>
       </c>
       <c r="Q121" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
@@ -9628,10 +9628,10 @@
         <v>271</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M122" s="2">
         <v>13.343408</v>
@@ -9646,7 +9646,7 @@
         <v>731</v>
       </c>
       <c r="Q122" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
@@ -9681,10 +9681,10 @@
         <v>271</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M123" s="2">
         <v>13.721487</v>
@@ -9699,7 +9699,7 @@
         <v>731</v>
       </c>
       <c r="Q123" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
@@ -9734,10 +9734,10 @@
         <v>271</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M124" s="2">
         <v>13.536728</v>
@@ -9752,7 +9752,7 @@
         <v>731</v>
       </c>
       <c r="Q124" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
@@ -9787,10 +9787,10 @@
         <v>271</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M125" s="2">
         <v>13.787800000000001</v>
@@ -9805,7 +9805,7 @@
         <v>731</v>
       </c>
       <c r="Q125" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
@@ -9840,10 +9840,10 @@
         <v>271</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M126" s="2">
         <v>13.019546</v>
@@ -9858,7 +9858,7 @@
         <v>731</v>
       </c>
       <c r="Q126" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
@@ -9893,10 +9893,10 @@
         <v>271</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M127" s="2">
         <v>14.020758000000001</v>
@@ -9911,7 +9911,7 @@
         <v>731</v>
       </c>
       <c r="Q127" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
@@ -9946,10 +9946,10 @@
         <v>271</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M128" s="2">
         <v>13.40494</v>
@@ -9964,7 +9964,7 @@
         <v>731</v>
       </c>
       <c r="Q128" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.25">
@@ -9999,10 +9999,10 @@
         <v>271</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M129" s="2">
         <v>16.047450000000001</v>
@@ -10017,7 +10017,7 @@
         <v>731</v>
       </c>
       <c r="Q129" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
@@ -10052,10 +10052,10 @@
         <v>271</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M130" s="2">
         <v>7.5551310000000003</v>
@@ -10070,7 +10070,7 @@
         <v>731</v>
       </c>
       <c r="Q130" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
@@ -10105,10 +10105,10 @@
         <v>271</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M131" s="2">
         <v>17.156286000000001</v>
@@ -10123,7 +10123,7 @@
         <v>731</v>
       </c>
       <c r="Q131" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.25">
@@ -10158,10 +10158,10 @@
         <v>271</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M132" s="2">
         <v>13.8124</v>
@@ -10176,7 +10176,7 @@
         <v>731</v>
       </c>
       <c r="Q132" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
@@ -10211,10 +10211,10 @@
         <v>271</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M133" s="2">
         <v>13.743230000000001</v>
@@ -10229,7 +10229,7 @@
         <v>731</v>
       </c>
       <c r="Q133" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
@@ -10264,10 +10264,10 @@
         <v>17</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M134" s="2">
         <v>12.716531</v>
@@ -10282,7 +10282,7 @@
         <v>731</v>
       </c>
       <c r="Q134" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
@@ -10317,10 +10317,10 @@
         <v>271</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M135" s="2">
         <v>7.0155900000000004</v>
@@ -10335,7 +10335,7 @@
         <v>731</v>
       </c>
       <c r="Q135" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
@@ -10388,7 +10388,7 @@
         <v>731</v>
       </c>
       <c r="Q136" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.25">
@@ -10423,10 +10423,10 @@
         <v>271</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M137" s="2">
         <v>7.8266400000000003</v>
@@ -10441,7 +10441,7 @@
         <v>731</v>
       </c>
       <c r="Q137" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.25">
@@ -10476,10 +10476,10 @@
         <v>271</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M138" s="2">
         <v>18.788098000000002</v>
@@ -10494,7 +10494,7 @@
         <v>731</v>
       </c>
       <c r="Q138" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.25">
@@ -10529,10 +10529,10 @@
         <v>271</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M139" s="2">
         <v>13.729124000000001</v>
@@ -10547,7 +10547,7 @@
         <v>731</v>
       </c>
       <c r="Q139" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.25">
@@ -10582,10 +10582,10 @@
         <v>271</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M140" s="2">
         <v>13.740145999999999</v>
@@ -10600,7 +10600,7 @@
         <v>731</v>
       </c>
       <c r="Q140" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.25">
@@ -10635,10 +10635,10 @@
         <v>271</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M141" s="2">
         <v>13.741744000000001</v>
@@ -10653,7 +10653,7 @@
         <v>731</v>
       </c>
       <c r="Q141" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.25">
@@ -10688,10 +10688,10 @@
         <v>271</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M142" s="2">
         <v>18.800138</v>
@@ -10706,7 +10706,7 @@
         <v>731</v>
       </c>
       <c r="Q142" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.25">
@@ -10741,10 +10741,10 @@
         <v>271</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M143" s="2">
         <v>13.834663000000001</v>
@@ -10759,7 +10759,7 @@
         <v>731</v>
       </c>
       <c r="Q143" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.25">
@@ -10794,10 +10794,10 @@
         <v>271</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M144" s="2">
         <v>13.638839000000001</v>
@@ -10812,7 +10812,7 @@
         <v>731</v>
       </c>
       <c r="Q144" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.25">
@@ -10847,10 +10847,10 @@
         <v>271</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M145" s="2">
         <v>13.729526</v>
@@ -10865,7 +10865,7 @@
         <v>731</v>
       </c>
       <c r="Q145" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.25">
@@ -10900,10 +10900,10 @@
         <v>271</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M146" s="2">
         <v>13.76502</v>
@@ -10918,7 +10918,7 @@
         <v>731</v>
       </c>
       <c r="Q146" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.25">
@@ -10953,10 +10953,10 @@
         <v>271</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M147" s="2">
         <v>13.91385</v>
@@ -10971,7 +10971,7 @@
         <v>731</v>
       </c>
       <c r="Q147" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.25">
@@ -11006,10 +11006,10 @@
         <v>271</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M148" s="2">
         <v>13.917501</v>
@@ -11024,7 +11024,7 @@
         <v>731</v>
       </c>
       <c r="Q148" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.25">
@@ -11059,10 +11059,10 @@
         <v>271</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M149" s="2">
         <v>13.721811000000001</v>
@@ -11077,7 +11077,7 @@
         <v>731</v>
       </c>
       <c r="Q149" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.25">
@@ -11112,10 +11112,10 @@
         <v>271</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M150" s="2">
         <v>13.709250000000001</v>
@@ -11130,7 +11130,7 @@
         <v>731</v>
       </c>
       <c r="Q150" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.25">
@@ -11165,10 +11165,10 @@
         <v>271</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M151" s="2">
         <v>13.766588</v>
@@ -11183,7 +11183,7 @@
         <v>731</v>
       </c>
       <c r="Q151" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.25">
@@ -11218,10 +11218,10 @@
         <v>271</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M152" s="2">
         <v>13.677467</v>
@@ -11236,7 +11236,7 @@
         <v>731</v>
       </c>
       <c r="Q152" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.25">
@@ -11271,10 +11271,10 @@
         <v>17</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M153" s="2">
         <v>13.754111999999999</v>
@@ -11289,7 +11289,7 @@
         <v>731</v>
       </c>
       <c r="Q153" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.25">
@@ -11324,10 +11324,10 @@
         <v>271</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M154" s="2">
         <v>13.728609000000001</v>
@@ -11342,7 +11342,7 @@
         <v>731</v>
       </c>
       <c r="Q154" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.25">
@@ -11377,10 +11377,10 @@
         <v>52</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M155" s="2">
         <v>13.777850000000001</v>
@@ -11395,7 +11395,7 @@
         <v>731</v>
       </c>
       <c r="Q155" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.25">
@@ -11430,10 +11430,10 @@
         <v>271</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M156" s="2">
         <v>14.988350000000001</v>
@@ -11448,7 +11448,7 @@
         <v>731</v>
       </c>
       <c r="Q156" s="6" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
   </sheetData>

--- a/Bank.xlsx
+++ b/Bank.xlsx
@@ -2778,7 +2778,7 @@
     <t>ไม่ระบุเวลา</t>
   </si>
   <si>
-    <t>รออัพเดทจากธนาคาร</t>
+    <t>เปิดทำการปกติ</t>
   </si>
 </sst>
 </file>
@@ -3149,8 +3149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E69" sqref="A1:Q156"/>
+    <sheetView tabSelected="1" topLeftCell="K119" workbookViewId="0">
+      <selection activeCell="Q58" sqref="Q58:Q156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bank.xlsx
+++ b/Bank.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="929">
   <si>
     <t>BRN_1760</t>
   </si>
@@ -2739,9 +2739,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t>ปิดให้บริการ ระหว่างวันที่ 22 มี.ค. - 12 เม.ย. 63</t>
-  </si>
-  <si>
     <t>เปลี่ยนเวลาทำการ ทุกวันจันทร์ - วันศุกร์ 8.30 - 17.00 น. วันเสาร์ 10.00 - 17.00 น.</t>
   </si>
   <si>
@@ -2779,6 +2776,36 @@
   </si>
   <si>
     <t>เปิดทำการปกติ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปิดให้บริการ ระหว่างวันที่ 22 มี.ค. - 30 เม.ย. 63 </t>
+  </si>
+  <si>
+    <t>ปิดให้บริการ ระหว่างวันที่ 22 มี.ค. - 30 เม.ย. 64</t>
+  </si>
+  <si>
+    <t>ปิดให้บริการ ระหว่างวันที่ 22 มี.ค. - 30 เม.ย. 65</t>
+  </si>
+  <si>
+    <t>ปิดให้บริการ ระหว่างวันที่ 22 มี.ค. - 30 เม.ย. 66</t>
+  </si>
+  <si>
+    <t>ปิดให้บริการ ระหว่างวันที่ 22 มี.ค. - 30 เม.ย. 67</t>
+  </si>
+  <si>
+    <t>ปิดให้บริการ ระหว่างวันที่ 22 มี.ค. - 30 เม.ย. 68</t>
+  </si>
+  <si>
+    <t>ปิดให้บริการ ระหว่างวันที่ 22 มี.ค. - 30 เม.ย. 69</t>
+  </si>
+  <si>
+    <t>ปิดให้บริการ ระหว่างวันที่ 22 มี.ค. - 30 เม.ย. 70</t>
+  </si>
+  <si>
+    <t>ปิดให้บริการ ระหว่างวันที่ 22 มี.ค. - 30 เม.ย. 71</t>
+  </si>
+  <si>
+    <t>ปิดให้บริการ ระหว่างวันที่ 22 มี.ค. - 30 เม.ย. 72</t>
   </si>
 </sst>
 </file>
@@ -3149,8 +3176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K119" workbookViewId="0">
-      <selection activeCell="Q58" sqref="Q58:Q156"/>
+    <sheetView tabSelected="1" topLeftCell="K34" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3270,7 +3297,7 @@
         <v>731</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>906</v>
+        <v>919</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -3323,7 +3350,7 @@
         <v>731</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -3358,10 +3385,10 @@
         <v>17</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M4" s="1">
         <v>13.750666000000001</v>
@@ -3376,7 +3403,7 @@
         <v>731</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>906</v>
+        <v>921</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -3429,7 +3456,7 @@
         <v>731</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -3482,7 +3509,7 @@
         <v>731</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>906</v>
+        <v>923</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -3535,7 +3562,7 @@
         <v>731</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>906</v>
+        <v>924</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -3588,7 +3615,7 @@
         <v>731</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>906</v>
+        <v>925</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -3641,7 +3668,7 @@
         <v>731</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>906</v>
+        <v>926</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -3676,10 +3703,10 @@
         <v>52</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M10" s="1">
         <v>13.68628</v>
@@ -3694,7 +3721,7 @@
         <v>731</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>906</v>
+        <v>927</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -3729,10 +3756,10 @@
         <v>59</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M11" s="1">
         <v>7.8851069999999996</v>
@@ -3747,7 +3774,7 @@
         <v>731</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>906</v>
+        <v>928</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -3782,10 +3809,10 @@
         <v>17</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M12" s="1">
         <v>13.746428</v>
@@ -3800,7 +3827,7 @@
         <v>731</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -3853,7 +3880,7 @@
         <v>731</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -3906,7 +3933,7 @@
         <v>731</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -3959,7 +3986,7 @@
         <v>731</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -4012,7 +4039,7 @@
         <v>731</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -4047,10 +4074,10 @@
         <v>45</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M17" s="1">
         <v>13.702631</v>
@@ -4065,7 +4092,7 @@
         <v>731</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -4118,7 +4145,7 @@
         <v>731</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -4171,7 +4198,7 @@
         <v>731</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -4224,7 +4251,7 @@
         <v>731</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -4277,7 +4304,7 @@
         <v>731</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -4330,7 +4357,7 @@
         <v>731</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -4383,7 +4410,7 @@
         <v>731</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -4436,7 +4463,7 @@
         <v>731</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -4489,7 +4516,7 @@
         <v>731</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -4542,7 +4569,7 @@
         <v>731</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -4595,7 +4622,7 @@
         <v>731</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -4648,7 +4675,7 @@
         <v>731</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -4701,7 +4728,7 @@
         <v>731</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -4754,7 +4781,7 @@
         <v>731</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -4807,7 +4834,7 @@
         <v>731</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -4860,7 +4887,7 @@
         <v>731</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -4913,7 +4940,7 @@
         <v>731</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -4966,7 +4993,7 @@
         <v>731</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -5019,7 +5046,7 @@
         <v>731</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -5072,7 +5099,7 @@
         <v>731</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -5125,7 +5152,7 @@
         <v>731</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -5178,7 +5205,7 @@
         <v>731</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -5213,10 +5240,10 @@
         <v>196</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M39" s="1">
         <v>13.727149000000001</v>
@@ -5231,7 +5258,7 @@
         <v>731</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -5266,10 +5293,10 @@
         <v>52</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M40" s="1">
         <v>13.735849999999999</v>
@@ -5284,7 +5311,7 @@
         <v>731</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -5319,10 +5346,10 @@
         <v>205</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M41" s="1">
         <v>13.739057000000001</v>
@@ -5337,7 +5364,7 @@
         <v>731</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -5390,7 +5417,7 @@
         <v>731</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -5443,7 +5470,7 @@
         <v>731</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
@@ -5496,7 +5523,7 @@
         <v>731</v>
       </c>
       <c r="Q44" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -5549,7 +5576,7 @@
         <v>731</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -5602,7 +5629,7 @@
         <v>731</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
@@ -5655,7 +5682,7 @@
         <v>731</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
@@ -5708,7 +5735,7 @@
         <v>731</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -5743,10 +5770,10 @@
         <v>71</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M49" s="1">
         <v>12.927666</v>
@@ -5761,7 +5788,7 @@
         <v>731</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -5796,10 +5823,10 @@
         <v>250</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M50" s="1">
         <v>13.420329000000001</v>
@@ -5814,7 +5841,7 @@
         <v>731</v>
       </c>
       <c r="Q50" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -5849,10 +5876,10 @@
         <v>255</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M51" s="1">
         <v>12.971168</v>
@@ -5867,7 +5894,7 @@
         <v>731</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -5920,7 +5947,7 @@
         <v>731</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
@@ -5973,7 +6000,7 @@
         <v>731</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -6008,10 +6035,10 @@
         <v>271</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M54" s="1">
         <v>17.404153999999998</v>
@@ -6026,7 +6053,7 @@
         <v>731</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -6079,7 +6106,7 @@
         <v>731</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -6132,7 +6159,7 @@
         <v>731</v>
       </c>
       <c r="Q56" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
@@ -6185,7 +6212,7 @@
         <v>731</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -6220,10 +6247,10 @@
         <v>271</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M58" s="1">
         <v>13.731427999999999</v>
@@ -6238,7 +6265,7 @@
         <v>731</v>
       </c>
       <c r="Q58" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -6273,10 +6300,10 @@
         <v>271</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M59" s="1">
         <v>13.737927000000001</v>
@@ -6291,7 +6318,7 @@
         <v>731</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -6326,10 +6353,10 @@
         <v>271</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M60" s="1">
         <v>13.747645</v>
@@ -6344,7 +6371,7 @@
         <v>731</v>
       </c>
       <c r="Q60" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -6379,10 +6406,10 @@
         <v>271</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M61" s="1">
         <v>13.367065999999999</v>
@@ -6397,7 +6424,7 @@
         <v>731</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -6432,10 +6459,10 @@
         <v>271</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M62" s="1">
         <v>14.973026000000001</v>
@@ -6450,7 +6477,7 @@
         <v>731</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -6485,10 +6512,10 @@
         <v>271</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M63" s="1">
         <v>8.4409030000000005</v>
@@ -6503,7 +6530,7 @@
         <v>731</v>
       </c>
       <c r="Q63" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -6538,10 +6565,10 @@
         <v>271</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M64" s="1">
         <v>7.0026919999999997</v>
@@ -6556,7 +6583,7 @@
         <v>731</v>
       </c>
       <c r="Q64" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
@@ -6591,10 +6618,10 @@
         <v>324</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M65" s="1">
         <v>6.5510890000000002</v>
@@ -6609,7 +6636,7 @@
         <v>731</v>
       </c>
       <c r="Q65" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
@@ -6644,10 +6671,10 @@
         <v>271</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M66" s="1">
         <v>13.311185</v>
@@ -6662,7 +6689,7 @@
         <v>731</v>
       </c>
       <c r="Q66" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
@@ -6697,10 +6724,10 @@
         <v>334</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M67" s="1">
         <v>18.781120000000001</v>
@@ -6715,7 +6742,7 @@
         <v>731</v>
       </c>
       <c r="Q67" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -6750,10 +6777,10 @@
         <v>271</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M68" s="1">
         <v>13.692282000000001</v>
@@ -6768,7 +6795,7 @@
         <v>731</v>
       </c>
       <c r="Q68" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
@@ -6803,10 +6830,10 @@
         <v>271</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M69" s="1">
         <v>7.880992</v>
@@ -6821,7 +6848,7 @@
         <v>731</v>
       </c>
       <c r="Q69" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
@@ -6856,10 +6883,10 @@
         <v>271</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M70" s="1">
         <v>15.232138000000001</v>
@@ -6874,7 +6901,7 @@
         <v>731</v>
       </c>
       <c r="Q70" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
@@ -6909,10 +6936,10 @@
         <v>271</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M71" s="1">
         <v>16.435815000000002</v>
@@ -6927,7 +6954,7 @@
         <v>731</v>
       </c>
       <c r="Q71" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
@@ -6962,10 +6989,10 @@
         <v>271</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M72" s="1">
         <v>13.843832000000001</v>
@@ -6980,7 +7007,7 @@
         <v>731</v>
       </c>
       <c r="Q72" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
@@ -7015,10 +7042,10 @@
         <v>271</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M73" s="1">
         <v>13.723876000000001</v>
@@ -7033,7 +7060,7 @@
         <v>731</v>
       </c>
       <c r="Q73" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
@@ -7068,10 +7095,10 @@
         <v>271</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M74" s="1">
         <v>13.649533</v>
@@ -7086,7 +7113,7 @@
         <v>731</v>
       </c>
       <c r="Q74" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
@@ -7121,10 +7148,10 @@
         <v>334</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M75" s="1">
         <v>16.817119999999999</v>
@@ -7139,7 +7166,7 @@
         <v>731</v>
       </c>
       <c r="Q75" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
@@ -7174,10 +7201,10 @@
         <v>271</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M76" s="1">
         <v>13.768891</v>
@@ -7192,7 +7219,7 @@
         <v>731</v>
       </c>
       <c r="Q76" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
@@ -7227,10 +7254,10 @@
         <v>271</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M77" s="1">
         <v>14.525961000000001</v>
@@ -7245,7 +7272,7 @@
         <v>731</v>
       </c>
       <c r="Q77" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -7280,10 +7307,10 @@
         <v>271</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M78" s="1">
         <v>13.686303000000001</v>
@@ -7298,7 +7325,7 @@
         <v>731</v>
       </c>
       <c r="Q78" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
@@ -7333,10 +7360,10 @@
         <v>271</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M79" s="1">
         <v>13.796044</v>
@@ -7351,7 +7378,7 @@
         <v>731</v>
       </c>
       <c r="Q79" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
@@ -7386,10 +7413,10 @@
         <v>271</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M80" s="1">
         <v>14.886862000000001</v>
@@ -7404,7 +7431,7 @@
         <v>731</v>
       </c>
       <c r="Q80" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
@@ -7439,10 +7466,10 @@
         <v>271</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M81" s="1">
         <v>18.288557000000001</v>
@@ -7457,7 +7484,7 @@
         <v>731</v>
       </c>
       <c r="Q81" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
@@ -7492,10 +7519,10 @@
         <v>405</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M82" s="1">
         <v>15.702826999999999</v>
@@ -7510,7 +7537,7 @@
         <v>731</v>
       </c>
       <c r="Q82" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
@@ -7545,10 +7572,10 @@
         <v>271</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M83" s="1">
         <v>13.735305</v>
@@ -7563,7 +7590,7 @@
         <v>731</v>
       </c>
       <c r="Q83" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
@@ -7598,10 +7625,10 @@
         <v>271</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M84" s="1">
         <v>12.606049000000001</v>
@@ -7616,7 +7643,7 @@
         <v>731</v>
       </c>
       <c r="Q84" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
@@ -7651,10 +7678,10 @@
         <v>271</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M85" s="1">
         <v>13.739537</v>
@@ -7669,7 +7696,7 @@
         <v>731</v>
       </c>
       <c r="Q85" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
@@ -7704,10 +7731,10 @@
         <v>271</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M86" s="1">
         <v>13.720420000000001</v>
@@ -7722,7 +7749,7 @@
         <v>731</v>
       </c>
       <c r="Q86" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
@@ -7757,10 +7784,10 @@
         <v>271</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M87" s="1">
         <v>13.773898000000001</v>
@@ -7775,7 +7802,7 @@
         <v>731</v>
       </c>
       <c r="Q87" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
@@ -7810,10 +7837,10 @@
         <v>271</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M88" s="1">
         <v>12.682145</v>
@@ -7828,7 +7855,7 @@
         <v>731</v>
       </c>
       <c r="Q88" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
@@ -7863,10 +7890,10 @@
         <v>271</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M89" s="1">
         <v>13.720767</v>
@@ -7881,7 +7908,7 @@
         <v>731</v>
       </c>
       <c r="Q89" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
@@ -7916,10 +7943,10 @@
         <v>271</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M90" s="1">
         <v>13.752618999999999</v>
@@ -7934,7 +7961,7 @@
         <v>731</v>
       </c>
       <c r="Q90" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
@@ -7969,10 +7996,10 @@
         <v>17</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M91" s="1">
         <v>13.740399999999999</v>
@@ -7987,7 +8014,7 @@
         <v>731</v>
       </c>
       <c r="Q91" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
@@ -8022,10 +8049,10 @@
         <v>271</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M92" s="1">
         <v>13.737</v>
@@ -8040,7 +8067,7 @@
         <v>731</v>
       </c>
       <c r="Q92" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
@@ -8075,10 +8102,10 @@
         <v>271</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M93" s="1">
         <v>13.887947</v>
@@ -8093,7 +8120,7 @@
         <v>731</v>
       </c>
       <c r="Q93" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
@@ -8128,10 +8155,10 @@
         <v>271</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M94" s="1">
         <v>9.1401420000000009</v>
@@ -8146,7 +8173,7 @@
         <v>731</v>
       </c>
       <c r="Q94" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
@@ -8181,10 +8208,10 @@
         <v>271</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M95" s="1">
         <v>19.910543000000001</v>
@@ -8199,7 +8226,7 @@
         <v>731</v>
       </c>
       <c r="Q95" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
@@ -8234,10 +8261,10 @@
         <v>271</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M96" s="1">
         <v>13.710176000000001</v>
@@ -8252,7 +8279,7 @@
         <v>731</v>
       </c>
       <c r="Q96" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
@@ -8287,10 +8314,10 @@
         <v>271</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M97" s="1">
         <v>13.962237</v>
@@ -8305,7 +8332,7 @@
         <v>731</v>
       </c>
       <c r="Q97" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
@@ -8340,10 +8367,10 @@
         <v>271</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M98" s="1">
         <v>13.670018000000001</v>
@@ -8358,7 +8385,7 @@
         <v>731</v>
       </c>
       <c r="Q98" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
@@ -8393,10 +8420,10 @@
         <v>271</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M99" s="1">
         <v>13.694651</v>
@@ -8411,7 +8438,7 @@
         <v>731</v>
       </c>
       <c r="Q99" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
@@ -8446,10 +8473,10 @@
         <v>271</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M100" s="1">
         <v>13.750797</v>
@@ -8464,7 +8491,7 @@
         <v>731</v>
       </c>
       <c r="Q100" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
@@ -8499,10 +8526,10 @@
         <v>271</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M101" s="1">
         <v>13.816895000000001</v>
@@ -8517,7 +8544,7 @@
         <v>731</v>
       </c>
       <c r="Q101" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
@@ -8552,10 +8579,10 @@
         <v>271</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M102" s="1">
         <v>13.935321</v>
@@ -8570,7 +8597,7 @@
         <v>731</v>
       </c>
       <c r="Q102" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
@@ -8605,10 +8632,10 @@
         <v>17</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M103" s="1">
         <v>12.723402</v>
@@ -8623,7 +8650,7 @@
         <v>731</v>
       </c>
       <c r="Q103" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
@@ -8658,10 +8685,10 @@
         <v>271</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M104" s="1">
         <v>13.783474</v>
@@ -8676,7 +8703,7 @@
         <v>731</v>
       </c>
       <c r="Q104" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
@@ -8711,10 +8738,10 @@
         <v>271</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M105" s="1">
         <v>13.551465</v>
@@ -8729,7 +8756,7 @@
         <v>731</v>
       </c>
       <c r="Q105" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
@@ -8764,10 +8791,10 @@
         <v>271</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M106" s="1">
         <v>13.704817</v>
@@ -8782,7 +8809,7 @@
         <v>731</v>
       </c>
       <c r="Q106" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
@@ -8817,10 +8844,10 @@
         <v>271</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M107" s="1">
         <v>13.162651</v>
@@ -8835,7 +8862,7 @@
         <v>731</v>
       </c>
       <c r="Q107" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
@@ -8870,10 +8897,10 @@
         <v>271</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M108" s="1">
         <v>13.69605</v>
@@ -8888,7 +8915,7 @@
         <v>731</v>
       </c>
       <c r="Q108" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
@@ -8923,10 +8950,10 @@
         <v>334</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M109" s="1">
         <v>14.354858</v>
@@ -8941,7 +8968,7 @@
         <v>731</v>
       </c>
       <c r="Q109" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
@@ -8976,10 +9003,10 @@
         <v>271</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M110" s="1">
         <v>13.680495000000001</v>
@@ -8994,7 +9021,7 @@
         <v>731</v>
       </c>
       <c r="Q110" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
@@ -9029,10 +9056,10 @@
         <v>271</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M111" s="1">
         <v>13.724164</v>
@@ -9047,7 +9074,7 @@
         <v>731</v>
       </c>
       <c r="Q111" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
@@ -9082,10 +9109,10 @@
         <v>271</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M112" s="1">
         <v>13.741047999999999</v>
@@ -9100,7 +9127,7 @@
         <v>731</v>
       </c>
       <c r="Q112" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
@@ -9135,10 +9162,10 @@
         <v>271</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M113" s="1">
         <v>13.777659</v>
@@ -9153,7 +9180,7 @@
         <v>731</v>
       </c>
       <c r="Q113" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
@@ -9188,10 +9215,10 @@
         <v>271</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M114" s="1">
         <v>13.772365000000001</v>
@@ -9206,7 +9233,7 @@
         <v>731</v>
       </c>
       <c r="Q114" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
@@ -9241,10 +9268,10 @@
         <v>271</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M115" s="1">
         <v>13.819765</v>
@@ -9259,7 +9286,7 @@
         <v>731</v>
       </c>
       <c r="Q115" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
@@ -9294,10 +9321,10 @@
         <v>271</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M116" s="1">
         <v>13.7072</v>
@@ -9312,7 +9339,7 @@
         <v>731</v>
       </c>
       <c r="Q116" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
@@ -9347,10 +9374,10 @@
         <v>271</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M117" s="1">
         <v>13.733335</v>
@@ -9365,7 +9392,7 @@
         <v>731</v>
       </c>
       <c r="Q117" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
@@ -9400,10 +9427,10 @@
         <v>271</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M118" s="1">
         <v>13.808109999999999</v>
@@ -9418,7 +9445,7 @@
         <v>731</v>
       </c>
       <c r="Q118" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
@@ -9453,10 +9480,10 @@
         <v>271</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M119" s="1">
         <v>13.755098</v>
@@ -9471,7 +9498,7 @@
         <v>731</v>
       </c>
       <c r="Q119" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
@@ -9506,10 +9533,10 @@
         <v>271</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M120" s="1">
         <v>18.783954999999999</v>
@@ -9524,7 +9551,7 @@
         <v>731</v>
       </c>
       <c r="Q120" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
@@ -9559,10 +9586,10 @@
         <v>271</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M121" s="1">
         <v>13.669539</v>
@@ -9577,7 +9604,7 @@
         <v>731</v>
       </c>
       <c r="Q121" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
@@ -9612,10 +9639,10 @@
         <v>271</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M122" s="1">
         <v>13.343408</v>
@@ -9630,7 +9657,7 @@
         <v>731</v>
       </c>
       <c r="Q122" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
@@ -9665,10 +9692,10 @@
         <v>271</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M123" s="1">
         <v>13.721487</v>
@@ -9683,7 +9710,7 @@
         <v>731</v>
       </c>
       <c r="Q123" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
@@ -9718,10 +9745,10 @@
         <v>271</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M124" s="1">
         <v>13.536728</v>
@@ -9736,7 +9763,7 @@
         <v>731</v>
       </c>
       <c r="Q124" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
@@ -9771,10 +9798,10 @@
         <v>271</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M125" s="1">
         <v>13.787800000000001</v>
@@ -9789,7 +9816,7 @@
         <v>731</v>
       </c>
       <c r="Q125" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
@@ -9824,10 +9851,10 @@
         <v>271</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M126" s="1">
         <v>13.019546</v>
@@ -9842,7 +9869,7 @@
         <v>731</v>
       </c>
       <c r="Q126" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
@@ -9877,10 +9904,10 @@
         <v>271</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M127" s="1">
         <v>14.020758000000001</v>
@@ -9895,7 +9922,7 @@
         <v>731</v>
       </c>
       <c r="Q127" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
@@ -9930,10 +9957,10 @@
         <v>271</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M128" s="1">
         <v>13.40494</v>
@@ -9948,7 +9975,7 @@
         <v>731</v>
       </c>
       <c r="Q128" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.25">
@@ -9983,10 +10010,10 @@
         <v>271</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M129" s="1">
         <v>16.047450000000001</v>
@@ -10001,7 +10028,7 @@
         <v>731</v>
       </c>
       <c r="Q129" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
@@ -10036,10 +10063,10 @@
         <v>271</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M130" s="1">
         <v>7.5551310000000003</v>
@@ -10054,7 +10081,7 @@
         <v>731</v>
       </c>
       <c r="Q130" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
@@ -10089,10 +10116,10 @@
         <v>271</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M131" s="1">
         <v>17.156286000000001</v>
@@ -10107,7 +10134,7 @@
         <v>731</v>
       </c>
       <c r="Q131" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.25">
@@ -10142,10 +10169,10 @@
         <v>271</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M132" s="1">
         <v>13.8124</v>
@@ -10160,7 +10187,7 @@
         <v>731</v>
       </c>
       <c r="Q132" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
@@ -10195,10 +10222,10 @@
         <v>271</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M133" s="1">
         <v>13.743230000000001</v>
@@ -10213,7 +10240,7 @@
         <v>731</v>
       </c>
       <c r="Q133" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
@@ -10248,10 +10275,10 @@
         <v>17</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M134" s="1">
         <v>12.716531</v>
@@ -10266,7 +10293,7 @@
         <v>731</v>
       </c>
       <c r="Q134" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
@@ -10301,10 +10328,10 @@
         <v>271</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M135" s="1">
         <v>7.0155900000000004</v>
@@ -10319,7 +10346,7 @@
         <v>731</v>
       </c>
       <c r="Q135" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
@@ -10372,7 +10399,7 @@
         <v>731</v>
       </c>
       <c r="Q136" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.25">
@@ -10407,10 +10434,10 @@
         <v>271</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M137" s="1">
         <v>7.8266400000000003</v>
@@ -10425,7 +10452,7 @@
         <v>731</v>
       </c>
       <c r="Q137" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.25">
@@ -10460,10 +10487,10 @@
         <v>271</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M138" s="1">
         <v>18.788098000000002</v>
@@ -10478,7 +10505,7 @@
         <v>731</v>
       </c>
       <c r="Q138" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.25">
@@ -10513,10 +10540,10 @@
         <v>271</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M139" s="1">
         <v>13.729124000000001</v>
@@ -10531,7 +10558,7 @@
         <v>731</v>
       </c>
       <c r="Q139" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.25">
@@ -10566,10 +10593,10 @@
         <v>271</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M140" s="1">
         <v>13.740145999999999</v>
@@ -10584,7 +10611,7 @@
         <v>731</v>
       </c>
       <c r="Q140" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.25">
@@ -10619,10 +10646,10 @@
         <v>271</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M141" s="1">
         <v>13.741744000000001</v>
@@ -10637,7 +10664,7 @@
         <v>731</v>
       </c>
       <c r="Q141" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.25">
@@ -10672,10 +10699,10 @@
         <v>271</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M142" s="1">
         <v>18.800138</v>
@@ -10690,7 +10717,7 @@
         <v>731</v>
       </c>
       <c r="Q142" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.25">
@@ -10725,10 +10752,10 @@
         <v>271</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M143" s="1">
         <v>13.834663000000001</v>
@@ -10743,7 +10770,7 @@
         <v>731</v>
       </c>
       <c r="Q143" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.25">
@@ -10778,10 +10805,10 @@
         <v>271</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M144" s="1">
         <v>13.638839000000001</v>
@@ -10796,7 +10823,7 @@
         <v>731</v>
       </c>
       <c r="Q144" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.25">
@@ -10831,10 +10858,10 @@
         <v>271</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M145" s="1">
         <v>13.729526</v>
@@ -10849,7 +10876,7 @@
         <v>731</v>
       </c>
       <c r="Q145" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.25">
@@ -10884,10 +10911,10 @@
         <v>271</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M146" s="1">
         <v>13.76502</v>
@@ -10902,7 +10929,7 @@
         <v>731</v>
       </c>
       <c r="Q146" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.25">
@@ -10937,10 +10964,10 @@
         <v>271</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M147" s="1">
         <v>13.91385</v>
@@ -10955,7 +10982,7 @@
         <v>731</v>
       </c>
       <c r="Q147" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.25">
@@ -10990,10 +11017,10 @@
         <v>271</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M148" s="1">
         <v>13.917501</v>
@@ -11008,7 +11035,7 @@
         <v>731</v>
       </c>
       <c r="Q148" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.25">
@@ -11043,10 +11070,10 @@
         <v>271</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M149" s="1">
         <v>13.721811000000001</v>
@@ -11061,7 +11088,7 @@
         <v>731</v>
       </c>
       <c r="Q149" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.25">
@@ -11096,10 +11123,10 @@
         <v>271</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M150" s="1">
         <v>13.709250000000001</v>
@@ -11114,7 +11141,7 @@
         <v>731</v>
       </c>
       <c r="Q150" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.25">
@@ -11149,10 +11176,10 @@
         <v>271</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M151" s="1">
         <v>13.766588</v>
@@ -11167,7 +11194,7 @@
         <v>731</v>
       </c>
       <c r="Q151" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.25">
@@ -11202,10 +11229,10 @@
         <v>271</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M152" s="1">
         <v>13.677467</v>
@@ -11220,7 +11247,7 @@
         <v>731</v>
       </c>
       <c r="Q152" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.25">
@@ -11255,10 +11282,10 @@
         <v>17</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M153" s="1">
         <v>13.754111999999999</v>
@@ -11273,7 +11300,7 @@
         <v>731</v>
       </c>
       <c r="Q153" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.25">
@@ -11308,10 +11335,10 @@
         <v>271</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M154" s="1">
         <v>13.728609000000001</v>
@@ -11326,7 +11353,7 @@
         <v>731</v>
       </c>
       <c r="Q154" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.25">
@@ -11361,10 +11388,10 @@
         <v>52</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M155" s="1">
         <v>13.777850000000001</v>
@@ -11379,7 +11406,7 @@
         <v>731</v>
       </c>
       <c r="Q155" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.25">
@@ -11414,10 +11441,10 @@
         <v>271</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M156" s="1">
         <v>14.988350000000001</v>
@@ -11432,7 +11459,7 @@
         <v>731</v>
       </c>
       <c r="Q156" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
   </sheetData>

--- a/Bank.xlsx
+++ b/Bank.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9901CD4E-BE56-485C-B5A4-903EC9F658BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="920">
   <si>
     <t>BRN_1760</t>
   </si>
@@ -2779,39 +2780,12 @@
   </si>
   <si>
     <t xml:space="preserve">ปิดให้บริการ ระหว่างวันที่ 22 มี.ค. - 30 เม.ย. 63 </t>
-  </si>
-  <si>
-    <t>ปิดให้บริการ ระหว่างวันที่ 22 มี.ค. - 30 เม.ย. 64</t>
-  </si>
-  <si>
-    <t>ปิดให้บริการ ระหว่างวันที่ 22 มี.ค. - 30 เม.ย. 65</t>
-  </si>
-  <si>
-    <t>ปิดให้บริการ ระหว่างวันที่ 22 มี.ค. - 30 เม.ย. 66</t>
-  </si>
-  <si>
-    <t>ปิดให้บริการ ระหว่างวันที่ 22 มี.ค. - 30 เม.ย. 67</t>
-  </si>
-  <si>
-    <t>ปิดให้บริการ ระหว่างวันที่ 22 มี.ค. - 30 เม.ย. 68</t>
-  </si>
-  <si>
-    <t>ปิดให้บริการ ระหว่างวันที่ 22 มี.ค. - 30 เม.ย. 69</t>
-  </si>
-  <si>
-    <t>ปิดให้บริการ ระหว่างวันที่ 22 มี.ค. - 30 เม.ย. 70</t>
-  </si>
-  <si>
-    <t>ปิดให้บริการ ระหว่างวันที่ 22 มี.ค. - 30 เม.ย. 71</t>
-  </si>
-  <si>
-    <t>ปิดให้บริการ ระหว่างวันที่ 22 มี.ค. - 30 เม.ย. 72</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3173,28 +3147,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K34" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q11"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" customWidth="1"/>
-    <col min="5" max="5" width="63.7109375" customWidth="1"/>
-    <col min="9" max="9" width="33.5703125" customWidth="1"/>
-    <col min="10" max="12" width="39.5703125" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" customWidth="1"/>
-    <col min="16" max="16" width="36.28515625" customWidth="1"/>
-    <col min="17" max="17" width="69.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" customWidth="1"/>
+    <col min="4" max="4" width="41.54296875" customWidth="1"/>
+    <col min="5" max="5" width="63.7265625" customWidth="1"/>
+    <col min="9" max="9" width="33.54296875" customWidth="1"/>
+    <col min="10" max="12" width="39.54296875" customWidth="1"/>
+    <col min="13" max="13" width="18.54296875" customWidth="1"/>
+    <col min="14" max="14" width="20.1796875" customWidth="1"/>
+    <col min="15" max="15" width="16.7265625" customWidth="1"/>
+    <col min="16" max="16" width="36.26953125" customWidth="1"/>
+    <col min="17" max="17" width="69.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="20.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>734</v>
       </c>
@@ -3247,7 +3221,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>736</v>
       </c>
@@ -3300,7 +3274,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>737</v>
       </c>
@@ -3350,10 +3324,10 @@
         <v>731</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>738</v>
       </c>
@@ -3403,10 +3377,10 @@
         <v>731</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>739</v>
       </c>
@@ -3456,10 +3430,10 @@
         <v>731</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>740</v>
       </c>
@@ -3509,10 +3483,10 @@
         <v>731</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>741</v>
       </c>
@@ -3562,10 +3536,10 @@
         <v>731</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>742</v>
       </c>
@@ -3615,10 +3589,10 @@
         <v>731</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>743</v>
       </c>
@@ -3668,10 +3642,10 @@
         <v>731</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>744</v>
       </c>
@@ -3721,10 +3695,10 @@
         <v>731</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>745</v>
       </c>
@@ -3774,10 +3748,10 @@
         <v>731</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>746</v>
       </c>
@@ -3830,7 +3804,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>747</v>
       </c>
@@ -3883,7 +3857,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>748</v>
       </c>
@@ -3936,7 +3910,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>749</v>
       </c>
@@ -3989,7 +3963,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>750</v>
       </c>
@@ -4042,7 +4016,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>751</v>
       </c>
@@ -4095,7 +4069,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>752</v>
       </c>
@@ -4148,7 +4122,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>753</v>
       </c>
@@ -4201,7 +4175,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>754</v>
       </c>
@@ -4254,7 +4228,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>755</v>
       </c>
@@ -4307,7 +4281,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>756</v>
       </c>
@@ -4360,7 +4334,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>757</v>
       </c>
@@ -4413,7 +4387,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>758</v>
       </c>
@@ -4466,7 +4440,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>759</v>
       </c>
@@ -4519,7 +4493,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>760</v>
       </c>
@@ -4572,7 +4546,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>761</v>
       </c>
@@ -4625,7 +4599,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>762</v>
       </c>
@@ -4678,7 +4652,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>763</v>
       </c>
@@ -4731,7 +4705,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>764</v>
       </c>
@@ -4784,7 +4758,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>765</v>
       </c>
@@ -4837,7 +4811,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>766</v>
       </c>
@@ -4890,7 +4864,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>767</v>
       </c>
@@ -4943,7 +4917,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>768</v>
       </c>
@@ -4996,7 +4970,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>769</v>
       </c>
@@ -5049,7 +5023,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>770</v>
       </c>
@@ -5102,7 +5076,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>771</v>
       </c>
@@ -5155,7 +5129,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>772</v>
       </c>
@@ -5208,7 +5182,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>773</v>
       </c>
@@ -5261,7 +5235,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>774</v>
       </c>
@@ -5314,7 +5288,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>775</v>
       </c>
@@ -5367,7 +5341,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>776</v>
       </c>
@@ -5420,7 +5394,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>777</v>
       </c>
@@ -5473,7 +5447,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>778</v>
       </c>
@@ -5526,7 +5500,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>779</v>
       </c>
@@ -5579,7 +5553,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>780</v>
       </c>
@@ -5632,7 +5606,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>781</v>
       </c>
@@ -5685,7 +5659,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>782</v>
       </c>
@@ -5738,7 +5712,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>783</v>
       </c>
@@ -5791,7 +5765,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>784</v>
       </c>
@@ -5844,7 +5818,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>785</v>
       </c>
@@ -5897,7 +5871,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>786</v>
       </c>
@@ -5950,7 +5924,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>787</v>
       </c>
@@ -6003,7 +5977,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>788</v>
       </c>
@@ -6056,7 +6030,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>789</v>
       </c>
@@ -6109,7 +6083,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>790</v>
       </c>
@@ -6162,7 +6136,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>791</v>
       </c>
@@ -6215,7 +6189,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>792</v>
       </c>
@@ -6268,7 +6242,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>793</v>
       </c>
@@ -6321,7 +6295,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>794</v>
       </c>
@@ -6374,7 +6348,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>795</v>
       </c>
@@ -6427,7 +6401,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>796</v>
       </c>
@@ -6480,7 +6454,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>797</v>
       </c>
@@ -6533,7 +6507,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>798</v>
       </c>
@@ -6586,7 +6560,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>799</v>
       </c>
@@ -6639,7 +6613,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>800</v>
       </c>
@@ -6692,7 +6666,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>801</v>
       </c>
@@ -6745,7 +6719,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>802</v>
       </c>
@@ -6798,7 +6772,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>803</v>
       </c>
@@ -6851,7 +6825,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>804</v>
       </c>
@@ -6904,7 +6878,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>805</v>
       </c>
@@ -6957,7 +6931,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>806</v>
       </c>
@@ -7010,7 +6984,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>807</v>
       </c>
@@ -7063,7 +7037,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>808</v>
       </c>
@@ -7116,7 +7090,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>809</v>
       </c>
@@ -7169,7 +7143,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>810</v>
       </c>
@@ -7222,7 +7196,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>811</v>
       </c>
@@ -7275,7 +7249,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>812</v>
       </c>
@@ -7328,7 +7302,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>813</v>
       </c>
@@ -7381,7 +7355,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>814</v>
       </c>
@@ -7434,7 +7408,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>815</v>
       </c>
@@ -7487,7 +7461,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>816</v>
       </c>
@@ -7540,7 +7514,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>817</v>
       </c>
@@ -7593,7 +7567,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>818</v>
       </c>
@@ -7646,7 +7620,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>819</v>
       </c>
@@ -7699,7 +7673,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>820</v>
       </c>
@@ -7752,7 +7726,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>821</v>
       </c>
@@ -7805,7 +7779,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>822</v>
       </c>
@@ -7858,7 +7832,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>823</v>
       </c>
@@ -7911,7 +7885,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>824</v>
       </c>
@@ -7964,7 +7938,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>825</v>
       </c>
@@ -8017,7 +7991,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>826</v>
       </c>
@@ -8070,7 +8044,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>827</v>
       </c>
@@ -8123,7 +8097,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>828</v>
       </c>
@@ -8176,7 +8150,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>829</v>
       </c>
@@ -8229,7 +8203,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>830</v>
       </c>
@@ -8282,7 +8256,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>831</v>
       </c>
@@ -8335,7 +8309,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>832</v>
       </c>
@@ -8388,7 +8362,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>833</v>
       </c>
@@ -8441,7 +8415,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>834</v>
       </c>
@@ -8494,7 +8468,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>835</v>
       </c>
@@ -8547,7 +8521,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>836</v>
       </c>
@@ -8600,7 +8574,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>837</v>
       </c>
@@ -8653,7 +8627,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>838</v>
       </c>
@@ -8706,7 +8680,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>839</v>
       </c>
@@ -8759,7 +8733,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>840</v>
       </c>
@@ -8812,7 +8786,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>841</v>
       </c>
@@ -8865,7 +8839,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>842</v>
       </c>
@@ -8918,7 +8892,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>843</v>
       </c>
@@ -8971,7 +8945,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>844</v>
       </c>
@@ -9024,7 +8998,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>845</v>
       </c>
@@ -9077,7 +9051,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>846</v>
       </c>
@@ -9130,7 +9104,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>847</v>
       </c>
@@ -9183,7 +9157,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>848</v>
       </c>
@@ -9236,7 +9210,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>849</v>
       </c>
@@ -9289,7 +9263,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>850</v>
       </c>
@@ -9342,7 +9316,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>851</v>
       </c>
@@ -9395,7 +9369,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>852</v>
       </c>
@@ -9448,7 +9422,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>853</v>
       </c>
@@ -9501,7 +9475,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>854</v>
       </c>
@@ -9554,7 +9528,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>855</v>
       </c>
@@ -9607,7 +9581,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>856</v>
       </c>
@@ -9660,7 +9634,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
         <v>857</v>
       </c>
@@ -9713,7 +9687,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>858</v>
       </c>
@@ -9766,7 +9740,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
         <v>859</v>
       </c>
@@ -9819,7 +9793,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>860</v>
       </c>
@@ -9872,7 +9846,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>861</v>
       </c>
@@ -9925,7 +9899,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
         <v>862</v>
       </c>
@@ -9978,7 +9952,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
         <v>863</v>
       </c>
@@ -10031,7 +10005,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
         <v>864</v>
       </c>
@@ -10084,7 +10058,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
         <v>865</v>
       </c>
@@ -10137,7 +10111,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>866</v>
       </c>
@@ -10190,7 +10164,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
         <v>867</v>
       </c>
@@ -10243,7 +10217,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>868</v>
       </c>
@@ -10296,7 +10270,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>869</v>
       </c>
@@ -10349,7 +10323,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>870</v>
       </c>
@@ -10402,7 +10376,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
         <v>871</v>
       </c>
@@ -10455,7 +10429,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>872</v>
       </c>
@@ -10508,7 +10482,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>873</v>
       </c>
@@ -10561,7 +10535,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
         <v>874</v>
       </c>
@@ -10614,7 +10588,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>875</v>
       </c>
@@ -10667,7 +10641,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
         <v>735</v>
       </c>
@@ -10720,7 +10694,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>876</v>
       </c>
@@ -10773,7 +10747,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>877</v>
       </c>
@@ -10826,7 +10800,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>878</v>
       </c>
@@ -10879,7 +10853,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
         <v>879</v>
       </c>
@@ -10932,7 +10906,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>880</v>
       </c>
@@ -10985,7 +10959,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>881</v>
       </c>
@@ -11038,7 +11012,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>882</v>
       </c>
@@ -11091,7 +11065,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
         <v>883</v>
       </c>
@@ -11144,7 +11118,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>884</v>
       </c>
@@ -11197,7 +11171,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
         <v>885</v>
       </c>
@@ -11250,7 +11224,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
         <v>886</v>
       </c>
@@ -11303,7 +11277,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
         <v>887</v>
       </c>
@@ -11356,7 +11330,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
         <v>888</v>
       </c>
@@ -11409,7 +11383,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
         <v>889</v>
       </c>
@@ -11464,8 +11438,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1"/>
-    <hyperlink ref="P3:P156" r:id="rId2" display="https://ran-ln.tk/saveIMG/bank.jpg"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="P3:P156" r:id="rId2" display="https://ran-ln.tk/saveIMG/bank.jpg" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
